--- a/testresults(timer).xlsx
+++ b/testresults(timer).xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaibhav Vachhani\Downloads\SEM-5\CAB301\Assignment 2\Assignment2\CAB301-Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B378BF-4EF2-4099-911B-4112389FF318}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094F19EC-0926-4F06-83D2-A223DAB71893}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E3ACA9F-CD8F-40A6-AD96-15A216C453F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9E3ACA9F-CD8F-40A6-AD96-15A216C453F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>timer 1(minDistance)</t>
   </si>
@@ -43,6 +44,18 @@
   </si>
   <si>
     <t>y(theory)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array Size </t>
+  </si>
+  <si>
+    <t>Timer 1(minDistance)</t>
+  </si>
+  <si>
+    <t>Timer 2(minDistance2)</t>
+  </si>
+  <si>
+    <t>y(thoery)</t>
   </si>
 </sst>
 </file>
@@ -132,7 +145,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Arrazy Size vs Timer </a:t>
+              <a:t>Array Size vs Timer </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1181,7 +1194,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1303,7 +1316,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1319,6 +1332,1393 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="853380127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Array Size vs Timer </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Timer 1(minDistance)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Timer 1(minDistance)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4901997138083632E-2"/>
+                  <c:y val="-4.1872785003018595E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-AU" sz="1200" baseline="0"/>
+                      <a:t>y = 2E-05x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-AU" sz="1200" baseline="30000"/>
+                      <a:t>1.9794</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-AU" sz="1200"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>2842</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4380</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5711</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3589</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4326</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4486</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2845</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3746</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1416</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10156</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13276</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7009</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7471</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6203</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13715</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9086</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8560</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7295</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14572</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7324</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14194</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6679</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13452</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1426</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2556</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2878</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3116</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3079</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2611</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-530E-47B0-A23C-D139B3491C74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Timer 2(minDistance2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Timer 2(minDistance2)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.3551721157619376E-2"/>
+                  <c:y val="5.6812468495843552E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>y = 1E-05x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="30000"/>
+                      <a:t>1.9436</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>2842</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4380</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5711</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3589</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4326</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4486</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2845</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3746</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1416</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10156</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13276</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7009</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7471</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6203</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13715</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9086</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8560</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7295</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14572</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7324</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14194</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6679</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13452</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1193</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1340</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1442</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1416</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-530E-47B0-A23C-D139B3491C74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y(thoery)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>y (thoery)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.8396052463403484E-2"/>
+                  <c:y val="6.9166354205724284E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+                      <a:t>y = 3E-05x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-AU" sz="1100" baseline="30000"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-AU" sz="1100"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>2842</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4380</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5711</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3589</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4326</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4486</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2845</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3746</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1416</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10156</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13276</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7009</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7471</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6203</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13715</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9086</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8560</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7295</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14572</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7324</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14194</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6679</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13452</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>242.30892</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104.01132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>575.53200000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>983.26875000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>978.46563000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121.56507000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>386.42763000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>681.72866999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>561.42827999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>432.74412000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>603.72587999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>242.82075</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>631.21707000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>420.97548</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60.151679999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3094.3300800000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5287.5652799999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1473.78243</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1674.47523</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1154.31627</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5643.0367500000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2476.6618800000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2198.2080000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1596.5107500000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6370.2955200000006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1609.22928</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6044.0890799999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1338.2712300000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5428.68912</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-530E-47B0-A23C-D139B3491C74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="216612383"/>
+        <c:axId val="353994175"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="216612383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Array Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353994175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="353994175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Timee taken to execute (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="216612383"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1438,7 +2838,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1975,6 +3931,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D9B763-1FF6-47F5-B759-4425096E1574}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37CE3144-0963-4E99-91EB-5E1B03C8E9FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2294,8 +4291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A70A97-ED3E-460C-887F-896418341F50}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AG25" sqref="AG25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2758,4 +4755,474 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF91067-CD29-4D07-8FCC-F2C96EEE03E9}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2842</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>55</v>
+      </c>
+      <c r="D2">
+        <f>0.00003*(A2*A2)</f>
+        <v>242.30892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1862</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D30" si="0">0.00003*(A3*A3)</f>
+        <v>104.01132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4380</v>
+      </c>
+      <c r="B4">
+        <v>256</v>
+      </c>
+      <c r="C4">
+        <v>131</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>575.53200000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5725</v>
+      </c>
+      <c r="B5">
+        <v>439</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>983.26875000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5711</v>
+      </c>
+      <c r="B6">
+        <v>429</v>
+      </c>
+      <c r="C6">
+        <v>221</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>978.46563000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2013</v>
+      </c>
+      <c r="B7">
+        <v>57</v>
+      </c>
+      <c r="C7">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>121.56507000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3589</v>
+      </c>
+      <c r="B8">
+        <v>171</v>
+      </c>
+      <c r="C8">
+        <v>87</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>386.42763000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4767</v>
+      </c>
+      <c r="B9">
+        <v>307</v>
+      </c>
+      <c r="C9">
+        <v>158</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>681.72866999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4326</v>
+      </c>
+      <c r="B10">
+        <v>251</v>
+      </c>
+      <c r="C10">
+        <v>128</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>561.42827999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3798</v>
+      </c>
+      <c r="B11">
+        <v>188</v>
+      </c>
+      <c r="C11">
+        <v>97</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>432.74412000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4486</v>
+      </c>
+      <c r="B12">
+        <v>272</v>
+      </c>
+      <c r="C12">
+        <v>139</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>603.72587999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2845</v>
+      </c>
+      <c r="B13">
+        <v>105</v>
+      </c>
+      <c r="C13">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>242.82075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4587</v>
+      </c>
+      <c r="B14">
+        <v>355</v>
+      </c>
+      <c r="C14">
+        <v>251</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>631.21707000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3746</v>
+      </c>
+      <c r="B15">
+        <v>279</v>
+      </c>
+      <c r="C15">
+        <v>143</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>420.97548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1416</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>60.151679999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10156</v>
+      </c>
+      <c r="B17">
+        <v>1426</v>
+      </c>
+      <c r="C17">
+        <v>709</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>3094.3300800000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13276</v>
+      </c>
+      <c r="B18">
+        <v>2556</v>
+      </c>
+      <c r="C18">
+        <v>1193</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>5287.5652799999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7009</v>
+      </c>
+      <c r="B19">
+        <v>690</v>
+      </c>
+      <c r="C19">
+        <v>331</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1473.78243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7471</v>
+      </c>
+      <c r="B20">
+        <v>733</v>
+      </c>
+      <c r="C20">
+        <v>376</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1674.47523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>6203</v>
+      </c>
+      <c r="B21">
+        <v>510</v>
+      </c>
+      <c r="C21">
+        <v>256</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1154.31627</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>13715</v>
+      </c>
+      <c r="B22">
+        <v>2878</v>
+      </c>
+      <c r="C22">
+        <v>1340</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>5643.0367500000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9086</v>
+      </c>
+      <c r="B23">
+        <v>1090</v>
+      </c>
+      <c r="C23">
+        <v>714</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>2476.6618800000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>8560</v>
+      </c>
+      <c r="B24">
+        <v>965</v>
+      </c>
+      <c r="C24">
+        <v>498</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>2198.2080000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>7295</v>
+      </c>
+      <c r="B25">
+        <v>710</v>
+      </c>
+      <c r="C25">
+        <v>360</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1596.5107500000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>14572</v>
+      </c>
+      <c r="B26">
+        <v>3116</v>
+      </c>
+      <c r="C26">
+        <v>1442</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>6370.2955200000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>7324</v>
+      </c>
+      <c r="B27">
+        <v>707</v>
+      </c>
+      <c r="C27">
+        <v>367</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1609.22928</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>14194</v>
+      </c>
+      <c r="B28">
+        <v>3079</v>
+      </c>
+      <c r="C28">
+        <v>1416</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>6044.0890799999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>6679</v>
+      </c>
+      <c r="B29">
+        <v>595</v>
+      </c>
+      <c r="C29">
+        <v>308</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1338.2712300000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>13452</v>
+      </c>
+      <c r="B30">
+        <v>2611</v>
+      </c>
+      <c r="C30">
+        <v>1242</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>5428.68912</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/testresults(timer).xlsx
+++ b/testresults(timer).xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaibhav Vachhani\Downloads\SEM-5\CAB301\Assignment 2\Assignment2\CAB301-Assignment2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushallimbasiya/Documents/GitHub/CAB301-Assignment2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094F19EC-0926-4F06-83D2-A223DAB71893}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684ED615-5968-7448-B925-04E9F4A5A965}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9E3ACA9F-CD8F-40A6-AD96-15A216C453F9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{9E3ACA9F-CD8F-40A6-AD96-15A216C453F9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="without" sheetId="1" r:id="rId1"/>
+    <sheet name="without2" sheetId="2" r:id="rId2"/>
+    <sheet name="with" sheetId="3" r:id="rId3"/>
+    <sheet name="with2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,18 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>timer 1(minDistance)</t>
-  </si>
-  <si>
-    <t>timer 2 (minDistane2)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>Array Size</t>
-  </si>
-  <si>
-    <t>y(theory)</t>
   </si>
   <si>
     <t xml:space="preserve">Array Size </t>
@@ -55,7 +48,10 @@
     <t>Timer 2(minDistance2)</t>
   </si>
   <si>
-    <t>y(thoery)</t>
+    <t>y (Theory)</t>
+  </si>
+  <si>
+    <t>Timer 2(minDistane2)</t>
   </si>
 </sst>
 </file>
@@ -131,7 +127,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -144,7 +140,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>Array Size vs Timer </a:t>
             </a:r>
           </a:p>
@@ -163,7 +159,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -190,11 +186,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>without!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>timer 1(minDistance)</c:v>
+                  <c:v>Timer 1(minDistance)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -222,7 +218,7 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:name>minDistance</c:name>
+            <c:name>Timer 1(minDistance)</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
@@ -298,192 +294,198 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:f>without!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>3158</c:v>
+                  <c:v>9525</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1004</c:v>
+                  <c:v>3160</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3772</c:v>
+                  <c:v>5847</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2691</c:v>
+                  <c:v>14092</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4537</c:v>
+                  <c:v>11214</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4789</c:v>
+                  <c:v>11665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4915</c:v>
+                  <c:v>3053</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2873</c:v>
+                  <c:v>1975</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2400</c:v>
+                  <c:v>1037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1694</c:v>
+                  <c:v>6808</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3018</c:v>
+                  <c:v>10956</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4430</c:v>
+                  <c:v>2580</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3198</c:v>
+                  <c:v>13214</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1554</c:v>
+                  <c:v>7134</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2153</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10035</c:v>
+                  <c:v>1535</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6230</c:v>
+                  <c:v>1664</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13187</c:v>
+                  <c:v>2209</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13348</c:v>
+                  <c:v>1607</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14389</c:v>
+                  <c:v>604</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6922</c:v>
+                  <c:v>7799</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6291</c:v>
+                  <c:v>5055</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6150</c:v>
+                  <c:v>3334</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11785</c:v>
+                  <c:v>4403</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14033</c:v>
+                  <c:v>14327</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9079</c:v>
+                  <c:v>14866</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7339</c:v>
+                  <c:v>13536</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8033</c:v>
+                  <c:v>12459</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12817</c:v>
+                  <c:v>5433</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$30</c:f>
+              <c:f>without!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>137</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>297</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101</c:v>
+                  <c:v>2918</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>288</c:v>
+                  <c:v>1829</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>332</c:v>
+                  <c:v>1912</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>335</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>112</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>79</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39</c:v>
+                  <c:v>649</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>124</c:v>
+                  <c:v>1685</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>269</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>139</c:v>
+                  <c:v>2539</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33</c:v>
+                  <c:v>732</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1419</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>528</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2358</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2477</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2949</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>646</c:v>
+                  <c:v>886</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>534</c:v>
+                  <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>511</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1873</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2745</c:v>
+                  <c:v>2886</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1116</c:v>
+                  <c:v>3144</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>726</c:v>
+                  <c:v>2665</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>982</c:v>
+                  <c:v>2347</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2236</c:v>
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1840</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -500,11 +502,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>without!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>timer 2 (minDistane2)</c:v>
+                  <c:v>Timer 2(minDistane2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -532,7 +534,7 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:name>minDistance2</c:name>
+            <c:name>Timer 2(minDistance2)</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
@@ -608,192 +610,198 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:f>without!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>3158</c:v>
+                  <c:v>9525</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1004</c:v>
+                  <c:v>3160</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3772</c:v>
+                  <c:v>5847</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2691</c:v>
+                  <c:v>14092</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4537</c:v>
+                  <c:v>11214</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4789</c:v>
+                  <c:v>11665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4915</c:v>
+                  <c:v>3053</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2873</c:v>
+                  <c:v>1975</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2400</c:v>
+                  <c:v>1037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1694</c:v>
+                  <c:v>6808</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3018</c:v>
+                  <c:v>10956</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4430</c:v>
+                  <c:v>2580</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3198</c:v>
+                  <c:v>13214</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1554</c:v>
+                  <c:v>7134</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2153</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10035</c:v>
+                  <c:v>1535</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6230</c:v>
+                  <c:v>1664</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13187</c:v>
+                  <c:v>2209</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13348</c:v>
+                  <c:v>1607</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14389</c:v>
+                  <c:v>604</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6922</c:v>
+                  <c:v>7799</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6291</c:v>
+                  <c:v>5055</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6150</c:v>
+                  <c:v>3334</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11785</c:v>
+                  <c:v>4403</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14033</c:v>
+                  <c:v>14327</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9079</c:v>
+                  <c:v>14866</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7339</c:v>
+                  <c:v>13536</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8033</c:v>
+                  <c:v>12459</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12817</c:v>
+                  <c:v>5433</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$30</c:f>
+              <c:f>without!$C$2:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46</c:v>
+                  <c:v>1477</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>138</c:v>
+                  <c:v>923</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>924</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1329</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>143</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>738</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>273</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1098</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1302</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>247</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>877</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>1236</c:v>
+                  <c:v>1538</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>514</c:v>
+                  <c:v>1695</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>337</c:v>
+                  <c:v>1394</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>407</c:v>
+                  <c:v>1254</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1031</c:v>
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,11 +818,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>without!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>y(theory)</c:v>
+                  <c:v>y (Theory)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -842,7 +850,7 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:name>y=0.00001*(x^2)</c:name>
+            <c:name>y (Theory)</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
@@ -856,6 +864,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3365628937531134E-2"/>
+                  <c:y val="-2.9007766703778722E-4"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -869,7 +883,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -888,192 +902,198 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:f>without!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>3158</c:v>
+                  <c:v>9525</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1004</c:v>
+                  <c:v>3160</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3772</c:v>
+                  <c:v>5847</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2691</c:v>
+                  <c:v>14092</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4537</c:v>
+                  <c:v>11214</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4789</c:v>
+                  <c:v>11665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4915</c:v>
+                  <c:v>3053</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2873</c:v>
+                  <c:v>1975</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2400</c:v>
+                  <c:v>1037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1694</c:v>
+                  <c:v>6808</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3018</c:v>
+                  <c:v>10956</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4430</c:v>
+                  <c:v>2580</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3198</c:v>
+                  <c:v>13214</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1554</c:v>
+                  <c:v>7134</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2153</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10035</c:v>
+                  <c:v>1535</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6230</c:v>
+                  <c:v>1664</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13187</c:v>
+                  <c:v>2209</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13348</c:v>
+                  <c:v>1607</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14389</c:v>
+                  <c:v>604</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6922</c:v>
+                  <c:v>7799</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6291</c:v>
+                  <c:v>5055</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6150</c:v>
+                  <c:v>3334</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11785</c:v>
+                  <c:v>4403</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14033</c:v>
+                  <c:v>14327</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9079</c:v>
+                  <c:v>14866</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7339</c:v>
+                  <c:v>13536</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8033</c:v>
+                  <c:v>12459</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12817</c:v>
+                  <c:v>5433</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$30</c:f>
+              <c:f>without!$D$2:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>99.729640000000003</c:v>
+                  <c:v>907.25625000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.080160000000001</c:v>
+                  <c:v>99.856000000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>142.27984000000001</c:v>
+                  <c:v>341.87409000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72.414810000000003</c:v>
+                  <c:v>1985.8446400000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>205.84369000000001</c:v>
+                  <c:v>1257.5379600000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>229.34521000000001</c:v>
+                  <c:v>1360.72225</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>241.57225000000003</c:v>
+                  <c:v>93.208090000000013</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82.541290000000004</c:v>
+                  <c:v>39.006250000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.6</c:v>
+                  <c:v>10.753690000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.696360000000002</c:v>
+                  <c:v>463.48864000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>91.083240000000004</c:v>
+                  <c:v>1200.3393600000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>196.24900000000002</c:v>
+                  <c:v>66.564000000000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>102.27204</c:v>
+                  <c:v>1746.0979600000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24.149160000000002</c:v>
+                  <c:v>508.93956000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46.354090000000006</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1007.0122500000001</c:v>
+                  <c:v>23.562250000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>388.12900000000002</c:v>
+                  <c:v>27.688960000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1738.9696900000001</c:v>
+                  <c:v>48.796810000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1781.6910400000002</c:v>
+                  <c:v>25.824490000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2070.4332100000001</c:v>
+                  <c:v>3.6481600000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>479.14084000000003</c:v>
+                  <c:v>608.24401</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>395.76681000000002</c:v>
+                  <c:v>255.53025000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>378.22500000000002</c:v>
+                  <c:v>111.15556000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1388.8622500000001</c:v>
+                  <c:v>193.86409</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1969.2508900000003</c:v>
+                  <c:v>2052.6292900000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>824.28241000000003</c:v>
+                  <c:v>2209.9795600000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>538.60921000000008</c:v>
+                  <c:v>1832.23296</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>645.2908900000001</c:v>
+                  <c:v>1552.2668100000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1642.7548900000002</c:v>
+                  <c:v>295.17489</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1244.3402500000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1124,7 +1144,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1137,7 +1157,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-AU" sz="1400"/>
+                  <a:rPr lang="en-AU" sz="1600"/>
                   <a:t>Array Size</a:t>
                 </a:r>
               </a:p>
@@ -1156,7 +1176,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1254,17 +1274,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-AU" sz="1200"/>
-                  <a:t>Timee</a:t>
+                  <a:rPr lang="en-AU" sz="1600"/>
+                  <a:t>Time</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-AU" sz="1200" baseline="0"/>
+                  <a:rPr lang="en-AU" sz="1600" baseline="0"/>
                   <a:t> taken to execute (ms)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-AU" sz="1200"/>
+                <a:endParaRPr lang="en-AU" sz="1600"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1075668970405813E-2"/>
+              <c:y val="0.27887381304764502"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1344,7 +1372,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.6414266996529742E-2"/>
+          <c:y val="8.0647925823582087E-2"/>
+          <c:w val="0.89214844954588013"/>
+          <c:h val="4.5631620366023244E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1358,7 +1396,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1432,7 +1470,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1445,12 +1483,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>Array Size vs Timer </a:t>
             </a:r>
-            <a:endParaRPr lang="en-AU">
+            <a:endParaRPr lang="en-AU" sz="1600">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -1469,7 +1507,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1496,7 +1534,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$1</c:f>
+              <c:f>without2!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1544,8 +1582,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.4901997138083632E-2"/>
-                  <c:y val="-4.1872785003018595E-2"/>
+                  <c:x val="-1.8962591797237468E-2"/>
+                  <c:y val="-4.1806768404375347E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1610,192 +1648,192 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$30</c:f>
+              <c:f>without2!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>2842</c:v>
+                  <c:v>7021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1862</c:v>
+                  <c:v>11154</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4380</c:v>
+                  <c:v>13812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5725</c:v>
+                  <c:v>4349</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5711</c:v>
+                  <c:v>9777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2013</c:v>
+                  <c:v>11461</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3589</c:v>
+                  <c:v>1839</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4767</c:v>
+                  <c:v>14156</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4326</c:v>
+                  <c:v>7300</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3798</c:v>
+                  <c:v>12781</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4486</c:v>
+                  <c:v>12355</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2845</c:v>
+                  <c:v>9113</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4587</c:v>
+                  <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3746</c:v>
+                  <c:v>12346</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1416</c:v>
+                  <c:v>3915</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10156</c:v>
+                  <c:v>11459</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13276</c:v>
+                  <c:v>14051</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7009</c:v>
+                  <c:v>3333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7471</c:v>
+                  <c:v>9238</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6203</c:v>
+                  <c:v>10192</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13715</c:v>
+                  <c:v>2468</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9086</c:v>
+                  <c:v>13796</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8560</c:v>
+                  <c:v>3273</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7295</c:v>
+                  <c:v>10936</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14572</c:v>
+                  <c:v>3757</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7324</c:v>
+                  <c:v>942</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>14194</c:v>
+                  <c:v>10933</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6679</c:v>
+                  <c:v>9062</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13452</c:v>
+                  <c:v>7641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$30</c:f>
+              <c:f>without2!$B$2:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>695</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>1752</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>256</c:v>
+                  <c:v>2691</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>439</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>429</c:v>
+                  <c:v>1363</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57</c:v>
+                  <c:v>1847</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>171</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>307</c:v>
+                  <c:v>2843</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>251</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>188</c:v>
+                  <c:v>2299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>272</c:v>
+                  <c:v>2149</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105</c:v>
+                  <c:v>1168</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>355</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>279</c:v>
+                  <c:v>2141</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1426</c:v>
+                  <c:v>1850</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2556</c:v>
+                  <c:v>2787</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>690</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>733</c:v>
+                  <c:v>1204</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>510</c:v>
+                  <c:v>1462</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2878</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1090</c:v>
+                  <c:v>2671</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>965</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>710</c:v>
+                  <c:v>1680</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3116</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>707</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3079</c:v>
+                  <c:v>1693</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>595</c:v>
+                  <c:v>1159</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2611</c:v>
+                  <c:v>820</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1812,7 +1850,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$1</c:f>
+              <c:f>without2!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1860,8 +1898,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.3551721157619376E-2"/>
-                  <c:y val="5.6812468495843552E-2"/>
+                  <c:x val="6.7427626171927865E-2"/>
+                  <c:y val="2.7406098300744777E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1870,7 +1908,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="65000"/>
@@ -1883,14 +1921,14 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
                       <a:t>y = 1E-05x</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1400" baseline="30000"/>
+                      <a:rPr lang="en-US" sz="1200" baseline="30000"/>
                       <a:t>1.9436</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" sz="1400"/>
+                    <a:endParaRPr lang="en-US" sz="1200"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1907,7 +1945,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -1926,192 +1964,192 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$30</c:f>
+              <c:f>without2!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>2842</c:v>
+                  <c:v>7021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1862</c:v>
+                  <c:v>11154</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4380</c:v>
+                  <c:v>13812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5725</c:v>
+                  <c:v>4349</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5711</c:v>
+                  <c:v>9777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2013</c:v>
+                  <c:v>11461</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3589</c:v>
+                  <c:v>1839</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4767</c:v>
+                  <c:v>14156</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4326</c:v>
+                  <c:v>7300</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3798</c:v>
+                  <c:v>12781</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4486</c:v>
+                  <c:v>12355</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2845</c:v>
+                  <c:v>9113</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4587</c:v>
+                  <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3746</c:v>
+                  <c:v>12346</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1416</c:v>
+                  <c:v>3915</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10156</c:v>
+                  <c:v>11459</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13276</c:v>
+                  <c:v>14051</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7009</c:v>
+                  <c:v>3333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7471</c:v>
+                  <c:v>9238</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6203</c:v>
+                  <c:v>10192</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13715</c:v>
+                  <c:v>2468</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9086</c:v>
+                  <c:v>13796</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8560</c:v>
+                  <c:v>3273</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7295</c:v>
+                  <c:v>10936</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14572</c:v>
+                  <c:v>3757</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7324</c:v>
+                  <c:v>942</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>14194</c:v>
+                  <c:v>10933</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6679</c:v>
+                  <c:v>9062</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13452</c:v>
+                  <c:v>7641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$30</c:f>
+              <c:f>without2!$C$2:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>913</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131</c:v>
+                  <c:v>1437</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>221</c:v>
+                  <c:v>702</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>961</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>87</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>158</c:v>
+                  <c:v>1482</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>128</c:v>
+                  <c:v>394</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>139</c:v>
+                  <c:v>1120</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>56</c:v>
+                  <c:v>609</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>251</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>143</c:v>
+                  <c:v>1118</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>709</c:v>
+                  <c:v>963</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1193</c:v>
+                  <c:v>1450</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>331</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>376</c:v>
+                  <c:v>625</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>256</c:v>
+                  <c:v>764</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1340</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>714</c:v>
+                  <c:v>1397</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>498</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>360</c:v>
+                  <c:v>875</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1442</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>367</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1416</c:v>
+                  <c:v>879</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>308</c:v>
+                  <c:v>606</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1242</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2128,11 +2166,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$1</c:f>
+              <c:f>without2!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>y(thoery)</c:v>
+                  <c:v>y (Theory)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2186,7 +2224,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="65000"/>
@@ -2199,14 +2237,14 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+                      <a:rPr lang="en-AU" sz="1200" baseline="0"/>
                       <a:t>y = 3E-05x</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-AU" sz="1100" baseline="30000"/>
+                      <a:rPr lang="en-AU" sz="1200" baseline="30000"/>
                       <a:t>2</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-AU" sz="1100"/>
+                    <a:endParaRPr lang="en-AU" sz="1200"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2223,7 +2261,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -2242,192 +2280,192 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$30</c:f>
+              <c:f>without2!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>2842</c:v>
+                  <c:v>7021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1862</c:v>
+                  <c:v>11154</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4380</c:v>
+                  <c:v>13812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5725</c:v>
+                  <c:v>4349</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5711</c:v>
+                  <c:v>9777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2013</c:v>
+                  <c:v>11461</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3589</c:v>
+                  <c:v>1839</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4767</c:v>
+                  <c:v>14156</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4326</c:v>
+                  <c:v>7300</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3798</c:v>
+                  <c:v>12781</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4486</c:v>
+                  <c:v>12355</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2845</c:v>
+                  <c:v>9113</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4587</c:v>
+                  <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3746</c:v>
+                  <c:v>12346</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1416</c:v>
+                  <c:v>3915</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10156</c:v>
+                  <c:v>11459</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13276</c:v>
+                  <c:v>14051</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7009</c:v>
+                  <c:v>3333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7471</c:v>
+                  <c:v>9238</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6203</c:v>
+                  <c:v>10192</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13715</c:v>
+                  <c:v>2468</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9086</c:v>
+                  <c:v>13796</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8560</c:v>
+                  <c:v>3273</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7295</c:v>
+                  <c:v>10936</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14572</c:v>
+                  <c:v>3757</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7324</c:v>
+                  <c:v>942</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>14194</c:v>
+                  <c:v>10933</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6679</c:v>
+                  <c:v>9062</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13452</c:v>
+                  <c:v>7641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$30</c:f>
+              <c:f>without2!$D$2:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>242.30892</c:v>
+                  <c:v>492.94441000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>104.01132</c:v>
+                  <c:v>1244.11716</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>575.53200000000004</c:v>
+                  <c:v>1907.7134400000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>983.26875000000007</c:v>
+                  <c:v>189.13801000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>978.46563000000003</c:v>
+                  <c:v>955.89729000000011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>121.56507000000001</c:v>
+                  <c:v>1313.54521</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>386.42763000000002</c:v>
+                  <c:v>33.819210000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>681.72866999999997</c:v>
+                  <c:v>2003.9233600000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>561.42827999999997</c:v>
+                  <c:v>532.90000000000009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>432.74412000000001</c:v>
+                  <c:v>1633.53961</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>603.72587999999996</c:v>
+                  <c:v>1526.4602500000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>242.82075</c:v>
+                  <c:v>830.46769000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>631.21707000000004</c:v>
+                  <c:v>3.3524100000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>420.97548</c:v>
+                  <c:v>1524.2371600000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60.151679999999999</c:v>
+                  <c:v>153.27225000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3094.3300800000002</c:v>
+                  <c:v>1313.08681</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5287.5652799999998</c:v>
+                  <c:v>1974.3060100000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1473.78243</c:v>
+                  <c:v>111.08889000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1674.47523</c:v>
+                  <c:v>853.40644000000009</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1154.31627</c:v>
+                  <c:v>1038.76864</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5643.0367500000002</c:v>
+                  <c:v>60.910240000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2476.6618800000001</c:v>
+                  <c:v>1903.2961600000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2198.2080000000001</c:v>
+                  <c:v>107.12529000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1596.5107500000001</c:v>
+                  <c:v>1195.9609600000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6370.2955200000006</c:v>
+                  <c:v>141.15049000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1609.22928</c:v>
+                  <c:v>8.87364</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6044.0890799999997</c:v>
+                  <c:v>1195.3048900000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1338.2712300000001</c:v>
+                  <c:v>821.19844000000012</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5428.68912</c:v>
+                  <c:v>583.84881000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2492,7 +2530,7 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -2505,12 +2543,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-AU" sz="1800" b="0" i="0" baseline="0">
+                  <a:rPr lang="en-AU" sz="1600" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>Array Size</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-AU">
+                <a:endParaRPr lang="en-AU" sz="1600">
                   <a:effectLst/>
                 </a:endParaRPr>
               </a:p>
@@ -2543,7 +2581,7 @@
                 <a:buFontTx/>
                 <a:buNone/>
                 <a:tabLst/>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -2628,6 +2666,1283 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1600" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Time taken to execute (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU" sz="1600">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2183235867446393E-2"/>
+              <c:y val="0.25535013510875026"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="216612383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4649398390591926E-2"/>
+          <c:y val="8.4055080849135766E-2"/>
+          <c:w val="0.8961025505783069"/>
+          <c:h val="4.5631620366023244E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Array Size vs Timer</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>with!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Timer 1(minDistance)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Timer 1(minDistance)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>with!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>13247</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4861</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11780</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14905</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5046</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3119</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8883</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2776</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4614</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8880</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8926</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12459</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6896</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10078</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3408</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11559</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13232</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13778</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6675</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7582</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8222</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9524</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11794</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9024</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11323</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12267</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11992</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>with!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2529</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3271</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1132</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1165</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2271</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1896</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1447</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2549</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2739</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>971</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1298</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2058</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1171</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1808</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2231</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2102</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3919-6749-8936-479D13DE1F12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>with!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Timer 2(minDistance2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Timer 2(minDistance2)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>with!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>13247</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4861</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11780</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14905</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5046</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3119</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8883</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2776</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4614</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8880</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8926</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12459</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6896</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10078</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3408</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11559</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13232</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13778</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6675</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7582</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8222</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9524</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11794</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9024</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11323</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12267</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11992</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>with!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1683</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1042</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1316</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1391</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>686</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1047</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1148</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1127</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3919-6749-8936-479D13DE1F12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>with!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y (Theory)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>y (Theory)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>with!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>13247</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4861</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11780</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14905</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5046</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3119</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8883</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2776</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4614</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8880</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8926</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12459</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6896</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10078</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3408</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11559</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13232</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13778</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6675</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7582</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8222</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9524</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11794</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9024</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11323</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12267</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11992</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>with!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1930.313099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>259.92253099999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1526.4523999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2443.7492750000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280.08327600000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107.009771</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>867.98457899999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.767935999999992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>348.046875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>234.178956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>867.39839999999992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>876.40823599999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1707.4934909999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1461.8426239999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>523.10297600000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1117.2269240000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>127.75910399999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1469.715291</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1925.944064</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2088.1661239999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>490.111875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>632.35396400000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>743.61412399999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>997.772336</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1530.0827959999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>895.75833599999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1410.313619</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1655.2721790000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1581.888704</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.681996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3919-6749-8936-479D13DE1F12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2033961183"/>
+        <c:axId val="2033962863"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2033961183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Array Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2033962863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2033962863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
@@ -2641,12 +3956,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-AU" sz="1800" b="0" i="0" baseline="0">
+                  <a:rPr lang="en-AU" sz="1600" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Timee taken to execute (ms)</a:t>
+                  <a:t>Time taken to execute (ms)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-AU" sz="1200">
+                <a:endParaRPr lang="en-AU" sz="900">
                   <a:effectLst/>
                 </a:endParaRPr>
               </a:p>
@@ -2718,7 +4033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216612383"/>
+        <c:crossAx val="2033961183"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2731,7 +4046,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2745,7 +4060,1304 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Array Size vs Timer</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>with2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Timer 1(minDistance)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Timer 1(minDistance)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5934486458730138E-2"/>
+                  <c:y val="-6.8325679903299989E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>with2!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>10963</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10742</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6972</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2838</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5578</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7668</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11824</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9717</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7742</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14205</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8483</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12587</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4040</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5111</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5368</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1815</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9093</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5296</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8373</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7896</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14041</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10292</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>with2!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2449</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2254</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>833</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1337</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2855</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2241</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1174</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>882</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2779</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1499</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E6CC-AB40-99CB-0AE32325E306}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>with2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Timer 2(minDistance2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>Timer 2(minDistance2)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1616304640548322E-2"/>
+                  <c:y val="3.4745976173761927E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>with2!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>10963</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10742</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6972</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2838</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5578</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7668</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11824</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9717</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7742</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14205</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8483</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12587</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4040</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5111</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5368</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1815</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9093</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5296</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8373</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7896</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14041</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10292</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>with2!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>884</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1488</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1168</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1451</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E6CC-AB40-99CB-0AE32325E306}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>with2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y (Theory)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>y (Theory)</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>with2!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>10963</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10742</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6972</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2838</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5578</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7668</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11824</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9717</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7742</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14205</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8483</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12587</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4040</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5111</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5368</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1815</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9093</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5296</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8373</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7896</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14041</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10292</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>with2!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1322.0610589999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111.306371</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1269.296204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1882.238171</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>253.123299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1751.6307709999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1708.8642560000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>534.69662400000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.596683999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>342.25492400000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>646.78046399999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1537.8767359999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1038.620979</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>659.32420400000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2219.6022749999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>791.57417899999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1742.758259</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>179.5376</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>287.34553099999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>316.96966399999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36.236474999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>909.509139</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>308.523776</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>771.17841899999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>685.814976</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33.6875</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2168.646491</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1165.1779039999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>509.38827499999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E6CC-AB40-99CB-0AE32325E306}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2036534991"/>
+        <c:axId val="2030600271"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2036534991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Array Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49571746613810436"/>
+              <c:y val="0.92067707890857764"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2030600271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2030600271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1600" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Time taken to execute (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU" sz="1600">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2183235867446393E-2"/>
+              <c:y val="0.28828279982889704"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2036534991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1135097347281351E-2"/>
+          <c:y val="8.8787240606849185E-2"/>
+          <c:w val="0.89832867283136653"/>
+          <c:h val="4.5631620366023244E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2878,6 +5490,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3910,20 +6602,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>28574</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>547750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>81154</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3961,10 +7685,10 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>547751</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>24003</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3976,6 +7700,92 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>271526</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>39878</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C63D5E9-AB04-CB44-9FA7-5BA842A28A59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647695</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>722371</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>103378</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76A8C8A6-3E6E-5348-8248-1E503493D992}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4289,466 +8099,482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A70A97-ED3E-460C-887F-896418341F50}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>3158</v>
+        <v>9525</v>
       </c>
       <c r="B2">
-        <v>137</v>
+        <v>1287</v>
       </c>
       <c r="C2">
-        <v>70</v>
+        <v>676</v>
       </c>
       <c r="D2">
         <f>0.00001*(A2*A2)</f>
-        <v>99.729640000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>907.25625000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1004</v>
+        <v>3160</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D30" si="0">0.00001*(A3*A3)</f>
-        <v>10.080160000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D3:D31" si="0">0.00001*(A3*A3)</f>
+        <v>99.856000000000009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3772</v>
+        <v>5847</v>
       </c>
       <c r="B4">
-        <v>297</v>
+        <v>480</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>255</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>142.27984000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>341.87409000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2691</v>
+        <v>14092</v>
       </c>
       <c r="B5">
-        <v>101</v>
+        <v>2918</v>
       </c>
       <c r="C5">
-        <v>46</v>
+        <v>1477</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>72.414810000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1985.8446400000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4537</v>
+        <v>11214</v>
       </c>
       <c r="B6">
-        <v>288</v>
+        <v>1829</v>
       </c>
       <c r="C6">
-        <v>138</v>
+        <v>923</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>205.84369000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1257.5379600000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>4789</v>
+        <v>11665</v>
       </c>
       <c r="B7">
-        <v>332</v>
+        <v>1912</v>
       </c>
       <c r="C7">
+        <v>999</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1360.72225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3053</v>
+      </c>
+      <c r="B8">
+        <v>136</v>
+      </c>
+      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>93.208090000000013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1975</v>
+      </c>
+      <c r="B9">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>39.006250000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1037</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>10.753690000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6808</v>
+      </c>
+      <c r="B11">
+        <v>649</v>
+      </c>
+      <c r="C11">
+        <v>341</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>463.48864000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10956</v>
+      </c>
+      <c r="B12">
+        <v>1685</v>
+      </c>
+      <c r="C12">
+        <v>924</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1200.3393600000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2580</v>
+      </c>
+      <c r="B13">
+        <v>97</v>
+      </c>
+      <c r="C13">
+        <v>49</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>66.564000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13214</v>
+      </c>
+      <c r="B14">
+        <v>2539</v>
+      </c>
+      <c r="C14">
+        <v>1329</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1746.0979600000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7134</v>
+      </c>
+      <c r="B15">
+        <v>732</v>
+      </c>
+      <c r="C15">
+        <v>375</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>508.93956000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1000</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1535</v>
+      </c>
+      <c r="B17">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>23.562250000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1664</v>
+      </c>
+      <c r="B18">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>27.688960000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2209</v>
+      </c>
+      <c r="B19">
+        <v>74</v>
+      </c>
+      <c r="C19">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>48.796810000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1607</v>
+      </c>
+      <c r="B20">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>25.824490000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>604</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>3.6481600000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7799</v>
+      </c>
+      <c r="B22">
+        <v>886</v>
+      </c>
+      <c r="C22">
+        <v>476</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>608.24401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5055</v>
+      </c>
+      <c r="B23">
+        <v>377</v>
+      </c>
+      <c r="C23">
+        <v>203</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>255.53025000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3334</v>
+      </c>
+      <c r="B24">
+        <v>163</v>
+      </c>
+      <c r="C24">
+        <v>84</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>111.15556000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4403</v>
+      </c>
+      <c r="B25">
+        <v>275</v>
+      </c>
+      <c r="C25">
         <v>143</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>229.34521000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4915</v>
-      </c>
-      <c r="B8">
-        <v>335</v>
-      </c>
-      <c r="C8">
-        <v>152</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>241.57225000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2873</v>
-      </c>
-      <c r="B9">
-        <v>112</v>
-      </c>
-      <c r="C9">
-        <v>53</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>82.541290000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2400</v>
-      </c>
-      <c r="B10">
-        <v>79</v>
-      </c>
-      <c r="C10">
-        <v>36</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>57.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1694</v>
-      </c>
-      <c r="B11">
-        <v>39</v>
-      </c>
-      <c r="C11">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>28.696360000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3018</v>
-      </c>
-      <c r="B12">
-        <v>124</v>
-      </c>
-      <c r="C12">
-        <v>57</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>91.083240000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>4430</v>
-      </c>
-      <c r="B13">
-        <v>269</v>
-      </c>
-      <c r="C13">
-        <v>122</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>196.24900000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3198</v>
-      </c>
-      <c r="B14">
-        <v>139</v>
-      </c>
-      <c r="C14">
-        <v>64</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>102.27204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1554</v>
-      </c>
-      <c r="B15">
-        <v>33</v>
-      </c>
-      <c r="C15">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>24.149160000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2153</v>
-      </c>
-      <c r="B16">
-        <v>63</v>
-      </c>
-      <c r="C16">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>46.354090000000006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>10035</v>
-      </c>
-      <c r="B17">
-        <v>1419</v>
-      </c>
-      <c r="C17">
-        <v>738</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>1007.0122500000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>6230</v>
-      </c>
-      <c r="B18">
-        <v>528</v>
-      </c>
-      <c r="C18">
-        <v>273</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>388.12900000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>13187</v>
-      </c>
-      <c r="B19">
-        <v>2358</v>
-      </c>
-      <c r="C19">
-        <v>1098</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>1738.9696900000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>13348</v>
-      </c>
-      <c r="B20">
-        <v>2477</v>
-      </c>
-      <c r="C20">
-        <v>1120</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>1781.6910400000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>14389</v>
-      </c>
-      <c r="B21">
-        <v>2949</v>
-      </c>
-      <c r="C21">
-        <v>1302</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>2070.4332100000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>6922</v>
-      </c>
-      <c r="B22">
-        <v>646</v>
-      </c>
-      <c r="C22">
-        <v>300</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>479.14084000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>6291</v>
-      </c>
-      <c r="B23">
-        <v>534</v>
-      </c>
-      <c r="C23">
-        <v>247</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>395.76681000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>6150</v>
-      </c>
-      <c r="B24">
-        <v>511</v>
-      </c>
-      <c r="C24">
-        <v>310</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>378.22500000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>11785</v>
-      </c>
-      <c r="B25">
-        <v>1873</v>
-      </c>
-      <c r="C25">
-        <v>877</v>
-      </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>1388.8622500000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>193.86409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>14033</v>
+        <v>14327</v>
       </c>
       <c r="B26">
-        <v>2745</v>
+        <v>2886</v>
       </c>
       <c r="C26">
-        <v>1236</v>
+        <v>1538</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>1969.2508900000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2052.6292900000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>9079</v>
+        <v>14866</v>
       </c>
       <c r="B27">
-        <v>1116</v>
+        <v>3144</v>
       </c>
       <c r="C27">
-        <v>514</v>
+        <v>1695</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>824.28241000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2209.9795600000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>7339</v>
+        <v>13536</v>
       </c>
       <c r="B28">
-        <v>726</v>
+        <v>2665</v>
       </c>
       <c r="C28">
-        <v>337</v>
+        <v>1394</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>538.60921000000008</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1832.23296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>8033</v>
+        <v>12459</v>
       </c>
       <c r="B29">
-        <v>982</v>
+        <v>2347</v>
       </c>
       <c r="C29">
-        <v>407</v>
+        <v>1254</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>645.2908900000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1552.2668100000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>12817</v>
+        <v>5433</v>
       </c>
       <c r="B30">
-        <v>2236</v>
+        <v>429</v>
       </c>
       <c r="C30">
-        <v>1031</v>
+        <v>228</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>1642.7548900000002</v>
+        <v>295.17489</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>11155</v>
+      </c>
+      <c r="B31">
+        <v>1840</v>
+      </c>
+      <c r="C31">
+        <v>931</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1244.3402500000002</v>
       </c>
     </row>
   </sheetData>
@@ -4759,466 +8585,1456 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF91067-CD29-4D07-8FCC-F2C96EEE03E9}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7021</v>
+      </c>
+      <c r="B2">
+        <v>695</v>
+      </c>
+      <c r="C2">
+        <v>364</v>
+      </c>
+      <c r="D2">
+        <f>0.00001*(A2*A2)</f>
+        <v>492.94441000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>11154</v>
+      </c>
+      <c r="B3">
+        <v>1752</v>
+      </c>
+      <c r="C3">
+        <v>913</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D31" si="0">0.00001*(A3*A3)</f>
+        <v>1244.11716</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>13812</v>
+      </c>
+      <c r="B4">
+        <v>2691</v>
+      </c>
+      <c r="C4">
+        <v>1437</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1907.7134400000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4349</v>
+      </c>
+      <c r="B5">
+        <v>270</v>
+      </c>
+      <c r="C5">
+        <v>141</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>189.13801000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9777</v>
+      </c>
+      <c r="B6">
+        <v>1363</v>
+      </c>
+      <c r="C6">
+        <v>702</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>955.89729000000011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>11461</v>
+      </c>
+      <c r="B7">
+        <v>1847</v>
+      </c>
+      <c r="C7">
+        <v>961</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1313.54521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1839</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>33.819210000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>14156</v>
+      </c>
+      <c r="B9">
+        <v>2843</v>
+      </c>
+      <c r="C9">
+        <v>1482</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2003.9233600000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7300</v>
+      </c>
+      <c r="B10">
+        <v>750</v>
+      </c>
+      <c r="C10">
+        <v>394</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>532.90000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>12781</v>
+      </c>
+      <c r="B11">
+        <v>2299</v>
+      </c>
+      <c r="C11">
+        <v>1200</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1633.53961</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12355</v>
+      </c>
+      <c r="B12">
+        <v>2149</v>
+      </c>
+      <c r="C12">
+        <v>1120</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1526.4602500000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9113</v>
+      </c>
+      <c r="B13">
+        <v>1168</v>
+      </c>
+      <c r="C13">
+        <v>609</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>830.46769000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>579</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3.3524100000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12346</v>
+      </c>
+      <c r="B15">
+        <v>2141</v>
+      </c>
+      <c r="C15">
+        <v>1118</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1524.2371600000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3915</v>
+      </c>
+      <c r="B16">
+        <v>217</v>
+      </c>
+      <c r="C16">
+        <v>115</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>153.27225000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>11459</v>
+      </c>
+      <c r="B17">
+        <v>1850</v>
+      </c>
+      <c r="C17">
+        <v>963</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1313.08681</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14051</v>
+      </c>
+      <c r="B18">
+        <v>2787</v>
+      </c>
+      <c r="C18">
+        <v>1450</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1974.3060100000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3333</v>
+      </c>
+      <c r="B19">
+        <v>158</v>
+      </c>
+      <c r="C19">
+        <v>83</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>111.08889000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>9238</v>
+      </c>
+      <c r="B20">
+        <v>1204</v>
+      </c>
+      <c r="C20">
+        <v>625</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>853.40644000000009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>10192</v>
+      </c>
+      <c r="B21">
+        <v>1462</v>
+      </c>
+      <c r="C21">
+        <v>764</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1038.76864</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2468</v>
+      </c>
+      <c r="B22">
+        <v>87</v>
+      </c>
+      <c r="C22">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>60.910240000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>13796</v>
+      </c>
+      <c r="B23">
+        <v>2671</v>
+      </c>
+      <c r="C23">
+        <v>1397</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1903.2961600000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3273</v>
+      </c>
+      <c r="B24">
+        <v>152</v>
+      </c>
+      <c r="C24">
+        <v>80</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>107.12529000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>10936</v>
+      </c>
+      <c r="B25">
+        <v>1680</v>
+      </c>
+      <c r="C25">
+        <v>875</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1195.9609600000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3757</v>
+      </c>
+      <c r="B26">
+        <v>201</v>
+      </c>
+      <c r="C26">
+        <v>106</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>141.15049000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>942</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>8.87364</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>10933</v>
+      </c>
+      <c r="B28">
+        <v>1693</v>
+      </c>
+      <c r="C28">
+        <v>879</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1195.3048900000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>9062</v>
+      </c>
+      <c r="B29">
+        <v>1159</v>
+      </c>
+      <c r="C29">
+        <v>606</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>821.19844000000012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>7641</v>
+      </c>
+      <c r="B30">
+        <v>820</v>
+      </c>
+      <c r="C30">
+        <v>430</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>583.84881000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>14951</v>
+      </c>
+      <c r="B31">
+        <v>3141</v>
+      </c>
+      <c r="C31">
+        <v>1634</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>2235.3240100000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35DD62B-F144-0E46-A023-F49F0FA15FA2}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2842</v>
+        <v>13247</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>2529</v>
       </c>
       <c r="C2">
-        <v>55</v>
+        <v>1304</v>
       </c>
       <c r="D2">
-        <f>0.00003*(A2*A2)</f>
-        <v>242.30892</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <f>0.000011*(A2*A2)</f>
+        <v>1930.313099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1862</v>
+        <v>4861</v>
       </c>
       <c r="B3">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D30" si="0">0.00003*(A3*A3)</f>
-        <v>104.01132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D3:D31" si="0">0.000011*(A3*A3)</f>
+        <v>259.92253099999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4380</v>
+        <v>11780</v>
       </c>
       <c r="B4">
-        <v>256</v>
+        <v>1955</v>
       </c>
       <c r="C4">
-        <v>131</v>
+        <v>1027</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>575.53200000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1526.4523999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5725</v>
+        <v>14905</v>
       </c>
       <c r="B5">
-        <v>439</v>
+        <v>3271</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>1683</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>983.26875000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2443.7492750000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5711</v>
+        <v>5046</v>
       </c>
       <c r="B6">
-        <v>429</v>
+        <v>364</v>
       </c>
       <c r="C6">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>978.46563000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>280.08327600000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2013</v>
+        <v>3119</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>121.56507000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107.009771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>3589</v>
+        <v>8883</v>
       </c>
       <c r="B8">
-        <v>171</v>
+        <v>1124</v>
       </c>
       <c r="C8">
-        <v>87</v>
+        <v>584</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>386.42763000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>867.98457899999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>4767</v>
+        <v>2776</v>
       </c>
       <c r="B9">
-        <v>307</v>
+        <v>110</v>
       </c>
       <c r="C9">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>681.72866999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84.767935999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>4326</v>
+        <v>5625</v>
       </c>
       <c r="B10">
-        <v>251</v>
+        <v>459</v>
       </c>
       <c r="C10">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>561.42827999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>348.046875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>3798</v>
+        <v>4614</v>
       </c>
       <c r="B11">
-        <v>188</v>
+        <v>302</v>
       </c>
       <c r="C11">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>432.74412000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>234.178956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>4486</v>
+        <v>8880</v>
       </c>
       <c r="B12">
-        <v>272</v>
+        <v>1132</v>
       </c>
       <c r="C12">
-        <v>139</v>
+        <v>606</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>603.72587999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>867.39839999999992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2845</v>
+        <v>8926</v>
       </c>
       <c r="B13">
-        <v>105</v>
+        <v>1165</v>
       </c>
       <c r="C13">
-        <v>56</v>
+        <v>603</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>242.82075</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>876.40823599999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>4587</v>
+        <v>12459</v>
       </c>
       <c r="B14">
-        <v>355</v>
+        <v>2271</v>
       </c>
       <c r="C14">
-        <v>251</v>
+        <v>1150</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>631.21707000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1707.4934909999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>3746</v>
+        <v>11528</v>
       </c>
       <c r="B15">
-        <v>279</v>
+        <v>1896</v>
       </c>
       <c r="C15">
+        <v>984</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1461.8426239999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6896</v>
+      </c>
+      <c r="B16">
+        <v>697</v>
+      </c>
+      <c r="C16">
+        <v>357</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>523.10297600000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>10078</v>
+      </c>
+      <c r="B17">
+        <v>1447</v>
+      </c>
+      <c r="C17">
+        <v>753</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1117.2269240000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3408</v>
+      </c>
+      <c r="B18">
+        <v>170</v>
+      </c>
+      <c r="C18">
+        <v>92</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>127.75910399999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>11559</v>
+      </c>
+      <c r="B19">
+        <v>2027</v>
+      </c>
+      <c r="C19">
+        <v>1042</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1469.715291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>13232</v>
+      </c>
+      <c r="B20">
+        <v>2549</v>
+      </c>
+      <c r="C20">
+        <v>1316</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1925.944064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>13778</v>
+      </c>
+      <c r="B21">
+        <v>2739</v>
+      </c>
+      <c r="C21">
+        <v>1391</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>2088.1661239999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6675</v>
+      </c>
+      <c r="B22">
+        <v>631</v>
+      </c>
+      <c r="C22">
+        <v>328</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>490.111875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>7582</v>
+      </c>
+      <c r="B23">
+        <v>846</v>
+      </c>
+      <c r="C23">
+        <v>443</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>632.35396400000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>8222</v>
+      </c>
+      <c r="B24">
+        <v>971</v>
+      </c>
+      <c r="C24">
+        <v>510</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>743.61412399999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>9524</v>
+      </c>
+      <c r="B25">
+        <v>1298</v>
+      </c>
+      <c r="C25">
+        <v>686</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>997.772336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>11794</v>
+      </c>
+      <c r="B26">
+        <v>2058</v>
+      </c>
+      <c r="C26">
+        <v>1047</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1530.0827959999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>9024</v>
+      </c>
+      <c r="B27">
+        <v>1171</v>
+      </c>
+      <c r="C27">
+        <v>599</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>895.75833599999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>11323</v>
+      </c>
+      <c r="B28">
+        <v>1808</v>
+      </c>
+      <c r="C28">
+        <v>981</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1410.313619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>12267</v>
+      </c>
+      <c r="B29">
+        <v>2231</v>
+      </c>
+      <c r="C29">
+        <v>1148</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1655.2721790000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>11992</v>
+      </c>
+      <c r="B30">
+        <v>2102</v>
+      </c>
+      <c r="C30">
+        <v>1127</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1581.888704</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1194</v>
+      </c>
+      <c r="B31">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>15.681996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617A9C93-5FD2-0E47-B7DE-DF1699CAD511}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10963</v>
+      </c>
+      <c r="B2">
+        <v>1716</v>
+      </c>
+      <c r="C2">
+        <v>884</v>
+      </c>
+      <c r="D2">
+        <f>0.000011*(A2*A2)</f>
+        <v>1322.0610589999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3181</v>
+      </c>
+      <c r="B3">
         <v>143</v>
       </c>
+      <c r="C3">
+        <v>74</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D31" si="0">0.000011*(A3*A3)</f>
+        <v>111.306371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10742</v>
+      </c>
+      <c r="B4">
+        <v>1631</v>
+      </c>
+      <c r="C4">
+        <v>867</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1269.296204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>13081</v>
+      </c>
+      <c r="B5">
+        <v>2449</v>
+      </c>
+      <c r="C5">
+        <v>1280</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1882.238171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4797</v>
+      </c>
+      <c r="B6">
+        <v>330</v>
+      </c>
+      <c r="C6">
+        <v>172</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>253.123299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>12619</v>
+      </c>
+      <c r="B7">
+        <v>2254</v>
+      </c>
+      <c r="C7">
+        <v>1170</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1751.6307709999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>12464</v>
+      </c>
+      <c r="B8">
+        <v>2194</v>
+      </c>
+      <c r="C8">
+        <v>1145</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1708.8642560000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6972</v>
+      </c>
+      <c r="B9">
+        <v>689</v>
+      </c>
+      <c r="C9">
+        <v>359</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>534.69662400000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2838</v>
+      </c>
+      <c r="B10">
+        <v>116</v>
+      </c>
+      <c r="C10">
+        <v>61</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>88.596683999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5578</v>
+      </c>
+      <c r="B11">
+        <v>440</v>
+      </c>
+      <c r="C11">
+        <v>231</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>342.25492400000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7668</v>
+      </c>
+      <c r="B12">
+        <v>833</v>
+      </c>
+      <c r="C12">
+        <v>434</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>646.78046399999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11824</v>
+      </c>
+      <c r="B13">
+        <v>1976</v>
+      </c>
+      <c r="C13">
+        <v>1030</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1537.8767359999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>9717</v>
+      </c>
+      <c r="B14">
+        <v>1337</v>
+      </c>
+      <c r="C14">
+        <v>699</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1038.620979</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7742</v>
+      </c>
+      <c r="B15">
+        <v>850</v>
+      </c>
+      <c r="C15">
+        <v>442</v>
+      </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>420.97548</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>659.32420400000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1416</v>
+        <v>14205</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>2855</v>
       </c>
       <c r="C16">
+        <v>1488</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>2219.6022749999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8483</v>
+      </c>
+      <c r="B17">
+        <v>1017</v>
+      </c>
+      <c r="C17">
+        <v>529</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>791.57417899999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>12587</v>
+      </c>
+      <c r="B18">
+        <v>2241</v>
+      </c>
+      <c r="C18">
+        <v>1168</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1742.758259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4040</v>
+      </c>
+      <c r="B19">
+        <v>234</v>
+      </c>
+      <c r="C19">
+        <v>122</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>179.5376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5111</v>
+      </c>
+      <c r="B20">
+        <v>371</v>
+      </c>
+      <c r="C20">
+        <v>193</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>287.34553099999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5368</v>
+      </c>
+      <c r="B21">
+        <v>412</v>
+      </c>
+      <c r="C21">
+        <v>215</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>316.96966399999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1815</v>
+      </c>
+      <c r="B22">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>36.236474999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>9093</v>
+      </c>
+      <c r="B23">
+        <v>1174</v>
+      </c>
+      <c r="C23">
+        <v>611</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>909.509139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5296</v>
+      </c>
+      <c r="B24">
+        <v>396</v>
+      </c>
+      <c r="C24">
+        <v>207</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>308.523776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>8373</v>
+      </c>
+      <c r="B25">
+        <v>996</v>
+      </c>
+      <c r="C25">
+        <v>524</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>771.17841899999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1200</v>
+      </c>
+      <c r="B26">
         <v>20</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>60.151679999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>10156</v>
-      </c>
-      <c r="B17">
-        <v>1426</v>
-      </c>
-      <c r="C17">
-        <v>709</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>3094.3300800000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>13276</v>
-      </c>
-      <c r="B18">
-        <v>2556</v>
-      </c>
-      <c r="C18">
-        <v>1193</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>5287.5652799999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>7009</v>
-      </c>
-      <c r="B19">
-        <v>690</v>
-      </c>
-      <c r="C19">
-        <v>331</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>1473.78243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>7471</v>
-      </c>
-      <c r="B20">
-        <v>733</v>
-      </c>
-      <c r="C20">
-        <v>376</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>1674.47523</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>6203</v>
-      </c>
-      <c r="B21">
-        <v>510</v>
-      </c>
-      <c r="C21">
-        <v>256</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>1154.31627</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>13715</v>
-      </c>
-      <c r="B22">
-        <v>2878</v>
-      </c>
-      <c r="C22">
-        <v>1340</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>5643.0367500000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>9086</v>
-      </c>
-      <c r="B23">
-        <v>1090</v>
-      </c>
-      <c r="C23">
-        <v>714</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>2476.6618800000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>8560</v>
-      </c>
-      <c r="B24">
-        <v>965</v>
-      </c>
-      <c r="C24">
-        <v>498</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>2198.2080000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>7295</v>
-      </c>
-      <c r="B25">
-        <v>710</v>
-      </c>
-      <c r="C25">
-        <v>360</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>1596.5107500000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>14572</v>
-      </c>
-      <c r="B26">
-        <v>3116</v>
-      </c>
       <c r="C26">
-        <v>1442</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>6370.2955200000006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15.84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>7324</v>
+        <v>7896</v>
       </c>
       <c r="B27">
-        <v>707</v>
+        <v>882</v>
       </c>
       <c r="C27">
-        <v>367</v>
+        <v>461</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>1609.22928</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>685.814976</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>14194</v>
+        <v>1750</v>
       </c>
       <c r="B28">
-        <v>3079</v>
+        <v>42</v>
       </c>
       <c r="C28">
-        <v>1416</v>
+        <v>24</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>6044.0890799999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33.6875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>6679</v>
+        <v>14041</v>
       </c>
       <c r="B29">
-        <v>595</v>
+        <v>2779</v>
       </c>
       <c r="C29">
-        <v>308</v>
+        <v>1451</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>1338.2712300000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2168.646491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>13452</v>
+        <v>10292</v>
       </c>
       <c r="B30">
-        <v>2611</v>
+        <v>1499</v>
       </c>
       <c r="C30">
-        <v>1242</v>
+        <v>784</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>5428.68912</v>
+        <v>1165.1779039999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6805</v>
+      </c>
+      <c r="B31">
+        <v>658</v>
+      </c>
+      <c r="C31">
+        <v>342</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>509.38827499999996</v>
       </c>
     </row>
   </sheetData>

--- a/testresults(timer).xlsx
+++ b/testresults(timer).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushallimbasiya/Documents/GitHub/CAB301-Assignment2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaibhav Vachhani\Downloads\SEM-5\CAB301\Assignment 2\Assignment2\CAB301-Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684ED615-5968-7448-B925-04E9F4A5A965}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23955E47-215C-4520-9D29-D4CEE6C8800B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{9E3ACA9F-CD8F-40A6-AD96-15A216C453F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E3ACA9F-CD8F-40A6-AD96-15A216C453F9}"/>
   </bookViews>
   <sheets>
     <sheet name="without" sheetId="1" r:id="rId1"/>
@@ -8101,19 +8101,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A70A97-ED3E-460C-887F-896418341F50}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9525</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>907.25625000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3160</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>99.856000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5847</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>341.87409000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>14092</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>1985.8446400000003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11214</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>1257.5379600000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11665</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>1360.72225</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3053</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>93.208090000000013</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1975</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>39.006250000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1037</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>10.753690000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6808</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>463.48864000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10956</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>1200.3393600000002</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2580</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>66.564000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13214</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>1746.0979600000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7134</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>508.93956000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1000</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1535</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>23.562250000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1664</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>27.688960000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2209</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>48.796810000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1607</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>25.824490000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>604</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>3.6481600000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7799</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>608.24401</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5055</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>255.53025000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3334</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>111.15556000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4403</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>193.86409</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14327</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>2052.6292900000003</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>14866</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>2209.9795600000002</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>13536</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>1832.23296</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>12459</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>1552.2668100000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5433</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>295.17489</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>11155</v>
       </c>
@@ -8587,20 +8587,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF91067-CD29-4D07-8FCC-F2C96EEE03E9}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7021</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>492.94441000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11154</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>1244.11716</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13812</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>1907.7134400000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4349</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>189.13801000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9777</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>955.89729000000011</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11461</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>1313.54521</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1839</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>33.819210000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14156</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>2003.9233600000002</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7300</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>532.90000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12781</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>1633.53961</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12355</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>1526.4602500000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9113</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>830.46769000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>579</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>3.3524100000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12346</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>1524.2371600000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3915</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>153.27225000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11459</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>1313.08681</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14051</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>1974.3060100000002</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3333</v>
       </c>
@@ -8884,7 +8884,7 @@
         <v>111.08889000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9238</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>853.40644000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10192</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>1038.76864</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2468</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>60.910240000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13796</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>1903.2961600000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3273</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>107.12529000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10936</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>1195.9609600000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3757</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>141.15049000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>942</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>8.87364</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10933</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>1195.3048900000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9062</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>821.19844000000012</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7641</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>583.84881000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14951</v>
       </c>
@@ -9078,14 +9078,14 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>13247</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>1930.313099</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4861</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>259.92253099999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11780</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>1526.4523999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>14905</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>2443.7492750000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5046</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>280.08327600000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3119</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>107.009771</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8883</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>867.98457899999994</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2776</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>84.767935999999992</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5625</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>348.046875</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4614</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>234.178956</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8880</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>867.39839999999992</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8926</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>876.40823599999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12459</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>1707.4934909999999</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11528</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>1461.8426239999999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6896</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>523.10297600000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10078</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>1117.2269240000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3408</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>127.75910399999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11559</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>1469.715291</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13232</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>1925.944064</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13778</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>2088.1661239999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6675</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>490.111875</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7582</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>632.35396400000002</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8222</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>743.61412399999995</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9524</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>997.772336</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>11794</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>1530.0827959999999</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>9024</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>895.75833599999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>11323</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>1410.313619</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>12267</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>1655.2721790000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11992</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>1581.888704</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1194</v>
       </c>
@@ -9563,17 +9563,17 @@
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10963</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>1322.0610589999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3181</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>111.306371</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10742</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>1269.296204</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13081</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>1882.238171</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4797</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>253.123299</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>12619</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>1751.6307709999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12464</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>1708.8642560000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6972</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>534.69662400000004</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2838</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>88.596683999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5578</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>342.25492400000002</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7668</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>646.78046399999994</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11824</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>1537.8767359999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9717</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>1038.620979</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7742</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>659.32420400000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14205</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>2219.6022749999997</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8483</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>791.57417899999996</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12587</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>1742.758259</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4040</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>179.5376</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5111</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>287.34553099999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5368</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>316.96966399999997</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1815</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>36.236474999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9093</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>909.509139</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5296</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>308.523776</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8373</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>771.17841899999996</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1200</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>15.84</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7896</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>685.814976</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1750</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>33.6875</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>14041</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>2168.646491</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10292</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>1165.1779039999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6805</v>
       </c>

--- a/testresults(timer).xlsx
+++ b/testresults(timer).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaibhav Vachhani\Downloads\SEM-5\CAB301\Assignment 2\Assignment2\CAB301-Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DDD40A-D282-4E55-83AA-B932E296E80B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AF4F04-F332-4466-902B-8A2A48FF4171}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9E3ACA9F-CD8F-40A6-AD96-15A216C453F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{9E3ACA9F-CD8F-40A6-AD96-15A216C453F9}"/>
   </bookViews>
   <sheets>
     <sheet name="without" sheetId="1" r:id="rId1"/>
@@ -1308,7 +1308,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="65000"/>
@@ -1321,14 +1321,14 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
                       <a:t>y = 1E-05x</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1200" baseline="30000"/>
+                      <a:rPr lang="en-US" sz="1600" baseline="30000"/>
                       <a:t>2.0047</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" sz="1200"/>
+                    <a:endParaRPr lang="en-US" sz="1600"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1345,7 +1345,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -1624,7 +1624,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="65000"/>
@@ -1637,14 +1637,14 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
                       <a:t>y = 6E-06x</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1200" baseline="30000"/>
+                      <a:rPr lang="en-US" sz="1600" baseline="30000"/>
                       <a:t>2.0147</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" sz="1200"/>
+                    <a:endParaRPr lang="en-US" sz="1600"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1661,7 +1661,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -1934,6 +1934,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3658508420204723E-2"/>
+                  <c:y val="-1.177216065742877E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1947,7 +1953,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -2239,7 +2245,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -2645,8 +2651,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.1075668970405813E-2"/>
-              <c:y val="0.27887381304764502"/>
+              <c:x val="5.09496949673231E-2"/>
+              <c:y val="0.29446398197723983"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2733,10 +2739,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.27699727566269861"/>
-          <c:y val="9.1733874907770074E-2"/>
-          <c:w val="0.60559279874436844"/>
-          <c:h val="5.4473743295280388E-2"/>
+          <c:x val="0.18370066787853728"/>
+          <c:y val="6.2778345476488376E-2"/>
+          <c:w val="0.74737425781793643"/>
+          <c:h val="9.3081115870322653E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2752,7 +2758,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3884,8 +3890,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.7961695674740167E-2"/>
-                  <c:y val="4.1705881439376292E-2"/>
+                  <c:x val="8.5957451370314589E-2"/>
+                  <c:y val="5.2419655449364583E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4428,10 +4434,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.4649398390591926E-2"/>
-          <c:y val="8.4055080849135766E-2"/>
-          <c:w val="0.72993053208250447"/>
-          <c:h val="7.3158458742953E-2"/>
+          <c:x val="0.15159048468695105"/>
+          <c:y val="8.7999813632763366E-2"/>
+          <c:w val="0.75620311007922036"/>
+          <c:h val="6.9213685567410588E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -10391,15 +10397,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>328838</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>192767</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10434,15 +10440,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:colOff>962025</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10851,8 +10857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A70A97-ED3E-460C-887F-896418341F50}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="D46" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView topLeftCell="A37" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10900,11 +10906,11 @@
         <v>676</v>
       </c>
       <c r="D2">
-        <f>B2*1000000</f>
+        <f t="shared" ref="D2:D31" si="0">B2*1000000</f>
         <v>1287000000</v>
       </c>
       <c r="E2">
-        <f>C2*1000000</f>
+        <f t="shared" ref="E2:E31" si="1">C2*1000000</f>
         <v>676000000</v>
       </c>
       <c r="F2">
@@ -10927,19 +10933,19 @@
         <v>73</v>
       </c>
       <c r="D3">
-        <f>B3*1000000</f>
+        <f t="shared" si="0"/>
         <v>141000000</v>
       </c>
       <c r="E3">
-        <f>C3*1000000</f>
+        <f t="shared" si="1"/>
         <v>73000000</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F31" si="0">A3*A3</f>
+        <f t="shared" ref="F3:F31" si="2">A3*A3</f>
         <v>9985600</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G31" si="1">0.5*((A3*A3)-A3)</f>
+        <f t="shared" ref="G3:G31" si="3">0.5*((A3*A3)-A3)</f>
         <v>4991220</v>
       </c>
     </row>
@@ -10954,19 +10960,19 @@
         <v>255</v>
       </c>
       <c r="D4">
-        <f>B4*1000000</f>
+        <f t="shared" si="0"/>
         <v>480000000</v>
       </c>
       <c r="E4">
-        <f>C4*1000000</f>
+        <f t="shared" si="1"/>
         <v>255000000</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>34187409</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17090781</v>
       </c>
     </row>
@@ -10981,19 +10987,19 @@
         <v>1477</v>
       </c>
       <c r="D5">
-        <f>B5*1000000</f>
+        <f t="shared" si="0"/>
         <v>2918000000</v>
       </c>
       <c r="E5">
-        <f>C5*1000000</f>
+        <f t="shared" si="1"/>
         <v>1477000000</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>198584464</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>99285186</v>
       </c>
     </row>
@@ -11008,19 +11014,19 @@
         <v>923</v>
       </c>
       <c r="D6">
-        <f>B6*1000000</f>
+        <f t="shared" si="0"/>
         <v>1829000000</v>
       </c>
       <c r="E6">
-        <f>C6*1000000</f>
+        <f t="shared" si="1"/>
         <v>923000000</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>125753796</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>62871291</v>
       </c>
     </row>
@@ -11035,19 +11041,19 @@
         <v>999</v>
       </c>
       <c r="D7">
-        <f>B7*1000000</f>
+        <f t="shared" si="0"/>
         <v>1912000000</v>
       </c>
       <c r="E7">
-        <f>C7*1000000</f>
+        <f t="shared" si="1"/>
         <v>999000000</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>136072225</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>68030280</v>
       </c>
     </row>
@@ -11062,19 +11068,19 @@
         <v>68</v>
       </c>
       <c r="D8">
-        <f>B8*1000000</f>
+        <f t="shared" si="0"/>
         <v>136000000</v>
       </c>
       <c r="E8">
-        <f>C8*1000000</f>
+        <f t="shared" si="1"/>
         <v>68000000</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9320809</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4658878</v>
       </c>
     </row>
@@ -11089,19 +11095,19 @@
         <v>28</v>
       </c>
       <c r="D9">
-        <f>B9*1000000</f>
+        <f t="shared" si="0"/>
         <v>56000000</v>
       </c>
       <c r="E9">
-        <f>C9*1000000</f>
+        <f t="shared" si="1"/>
         <v>28000000</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3900625</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1949325</v>
       </c>
     </row>
@@ -11116,19 +11122,19 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <f>B10*1000000</f>
+        <f t="shared" si="0"/>
         <v>15000000</v>
       </c>
       <c r="E10">
-        <f>C10*1000000</f>
+        <f t="shared" si="1"/>
         <v>7000000</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1075369</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>537166</v>
       </c>
     </row>
@@ -11143,19 +11149,19 @@
         <v>341</v>
       </c>
       <c r="D11">
-        <f>B11*1000000</f>
+        <f t="shared" si="0"/>
         <v>649000000</v>
       </c>
       <c r="E11">
-        <f>C11*1000000</f>
+        <f t="shared" si="1"/>
         <v>341000000</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>46348864</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23171028</v>
       </c>
     </row>
@@ -11170,19 +11176,19 @@
         <v>924</v>
       </c>
       <c r="D12">
-        <f>B12*1000000</f>
+        <f t="shared" si="0"/>
         <v>1685000000</v>
       </c>
       <c r="E12">
-        <f>C12*1000000</f>
+        <f t="shared" si="1"/>
         <v>924000000</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>120033936</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60011490</v>
       </c>
     </row>
@@ -11197,19 +11203,19 @@
         <v>49</v>
       </c>
       <c r="D13">
-        <f>B13*1000000</f>
+        <f t="shared" si="0"/>
         <v>97000000</v>
       </c>
       <c r="E13">
-        <f>C13*1000000</f>
+        <f t="shared" si="1"/>
         <v>49000000</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6656400</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3326910</v>
       </c>
     </row>
@@ -11224,19 +11230,19 @@
         <v>1329</v>
       </c>
       <c r="D14">
-        <f>B14*1000000</f>
+        <f t="shared" si="0"/>
         <v>2539000000</v>
       </c>
       <c r="E14">
-        <f>C14*1000000</f>
+        <f t="shared" si="1"/>
         <v>1329000000</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>174609796</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>87298291</v>
       </c>
     </row>
@@ -11251,19 +11257,19 @@
         <v>375</v>
       </c>
       <c r="D15">
-        <f>B15*1000000</f>
+        <f t="shared" si="0"/>
         <v>732000000</v>
       </c>
       <c r="E15">
-        <f>C15*1000000</f>
+        <f t="shared" si="1"/>
         <v>375000000</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50893956</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25443411</v>
       </c>
     </row>
@@ -11278,19 +11284,19 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <f>B16*1000000</f>
+        <f t="shared" si="0"/>
         <v>14000000</v>
       </c>
       <c r="E16">
-        <f>C16*1000000</f>
+        <f t="shared" si="1"/>
         <v>7000000</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>499500</v>
       </c>
     </row>
@@ -11305,19 +11311,19 @@
         <v>19</v>
       </c>
       <c r="D17">
-        <f>B17*1000000</f>
+        <f t="shared" si="0"/>
         <v>34000000</v>
       </c>
       <c r="E17">
-        <f>C17*1000000</f>
+        <f t="shared" si="1"/>
         <v>19000000</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2356225</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1177345</v>
       </c>
     </row>
@@ -11332,19 +11338,19 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <f>B18*1000000</f>
+        <f t="shared" si="0"/>
         <v>41000000</v>
       </c>
       <c r="E18">
-        <f>C18*1000000</f>
+        <f t="shared" si="1"/>
         <v>22000000</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2768896</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1383616</v>
       </c>
     </row>
@@ -11359,19 +11365,19 @@
         <v>40</v>
       </c>
       <c r="D19">
-        <f>B19*1000000</f>
+        <f t="shared" si="0"/>
         <v>74000000</v>
       </c>
       <c r="E19">
-        <f>C19*1000000</f>
+        <f t="shared" si="1"/>
         <v>40000000</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4879681</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2438736</v>
       </c>
     </row>
@@ -11386,19 +11392,19 @@
         <v>20</v>
       </c>
       <c r="D20">
-        <f>B20*1000000</f>
+        <f t="shared" si="0"/>
         <v>38000000</v>
       </c>
       <c r="E20">
-        <f>C20*1000000</f>
+        <f t="shared" si="1"/>
         <v>20000000</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2582449</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1290421</v>
       </c>
     </row>
@@ -11413,19 +11419,19 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <f>B21*1000000</f>
+        <f t="shared" si="0"/>
         <v>5000000</v>
       </c>
       <c r="E21">
-        <f>C21*1000000</f>
+        <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>364816</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>182106</v>
       </c>
     </row>
@@ -11440,19 +11446,19 @@
         <v>476</v>
       </c>
       <c r="D22">
-        <f>B22*1000000</f>
+        <f t="shared" si="0"/>
         <v>886000000</v>
       </c>
       <c r="E22">
-        <f>C22*1000000</f>
+        <f t="shared" si="1"/>
         <v>476000000</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>60824401</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30408301</v>
       </c>
     </row>
@@ -11467,19 +11473,19 @@
         <v>203</v>
       </c>
       <c r="D23">
-        <f>B23*1000000</f>
+        <f t="shared" si="0"/>
         <v>377000000</v>
       </c>
       <c r="E23">
-        <f>C23*1000000</f>
+        <f t="shared" si="1"/>
         <v>203000000</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25553025</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12773985</v>
       </c>
     </row>
@@ -11494,19 +11500,19 @@
         <v>84</v>
       </c>
       <c r="D24">
-        <f>B24*1000000</f>
+        <f t="shared" si="0"/>
         <v>163000000</v>
       </c>
       <c r="E24">
-        <f>C24*1000000</f>
+        <f t="shared" si="1"/>
         <v>84000000</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11115556</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5556111</v>
       </c>
     </row>
@@ -11521,19 +11527,19 @@
         <v>143</v>
       </c>
       <c r="D25">
-        <f>B25*1000000</f>
+        <f t="shared" si="0"/>
         <v>275000000</v>
       </c>
       <c r="E25">
-        <f>C25*1000000</f>
+        <f t="shared" si="1"/>
         <v>143000000</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19386409</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9691003</v>
       </c>
     </row>
@@ -11548,19 +11554,19 @@
         <v>1538</v>
       </c>
       <c r="D26">
-        <f>B26*1000000</f>
+        <f t="shared" si="0"/>
         <v>2886000000</v>
       </c>
       <c r="E26">
-        <f>C26*1000000</f>
+        <f t="shared" si="1"/>
         <v>1538000000</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>205262929</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>102624301</v>
       </c>
     </row>
@@ -11575,19 +11581,19 @@
         <v>1695</v>
       </c>
       <c r="D27">
-        <f>B27*1000000</f>
+        <f t="shared" si="0"/>
         <v>3144000000</v>
       </c>
       <c r="E27">
-        <f>C27*1000000</f>
+        <f t="shared" si="1"/>
         <v>1695000000</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>220997956</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>110491545</v>
       </c>
     </row>
@@ -11602,19 +11608,19 @@
         <v>1394</v>
       </c>
       <c r="D28">
-        <f>B28*1000000</f>
+        <f t="shared" si="0"/>
         <v>2665000000</v>
       </c>
       <c r="E28">
-        <f>C28*1000000</f>
+        <f t="shared" si="1"/>
         <v>1394000000</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>183223296</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>91604880</v>
       </c>
     </row>
@@ -11629,19 +11635,19 @@
         <v>1254</v>
       </c>
       <c r="D29">
-        <f>B29*1000000</f>
+        <f t="shared" si="0"/>
         <v>2347000000</v>
       </c>
       <c r="E29">
-        <f>C29*1000000</f>
+        <f t="shared" si="1"/>
         <v>1254000000</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>155226681</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>77607111</v>
       </c>
     </row>
@@ -11656,19 +11662,19 @@
         <v>228</v>
       </c>
       <c r="D30">
-        <f>B30*1000000</f>
+        <f t="shared" si="0"/>
         <v>429000000</v>
       </c>
       <c r="E30">
-        <f>C30*1000000</f>
+        <f t="shared" si="1"/>
         <v>228000000</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29517489</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14756028</v>
       </c>
     </row>
@@ -11683,19 +11689,19 @@
         <v>931</v>
       </c>
       <c r="D31">
-        <f>B31*1000000</f>
+        <f t="shared" si="0"/>
         <v>1840000000</v>
       </c>
       <c r="E31">
-        <f>C31*1000000</f>
+        <f t="shared" si="1"/>
         <v>931000000</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>124434025</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>62211435</v>
       </c>
     </row>
@@ -11709,8 +11715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF91067-CD29-4D07-8FCC-F2C96EEE03E9}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G31"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11759,11 +11765,11 @@
         <v>364</v>
       </c>
       <c r="D2">
-        <f>B2*1000000</f>
+        <f t="shared" ref="D2:D31" si="0">B2*1000000</f>
         <v>695000000</v>
       </c>
       <c r="E2">
-        <f>C2*1000000</f>
+        <f t="shared" ref="E2:E31" si="1">C2*1000000</f>
         <v>364000000</v>
       </c>
       <c r="F2">
@@ -11786,19 +11792,19 @@
         <v>913</v>
       </c>
       <c r="D3">
-        <f>B3*1000000</f>
+        <f t="shared" si="0"/>
         <v>1752000000</v>
       </c>
       <c r="E3">
-        <f>C3*1000000</f>
+        <f t="shared" si="1"/>
         <v>913000000</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F31" si="0">A3*A3</f>
+        <f t="shared" ref="F3:F31" si="2">A3*A3</f>
         <v>124411716</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G31" si="1">0.5*((A3*A3)-A3)</f>
+        <f t="shared" ref="G3:G31" si="3">0.5*((A3*A3)-A3)</f>
         <v>62200281</v>
       </c>
     </row>
@@ -11813,19 +11819,19 @@
         <v>1437</v>
       </c>
       <c r="D4">
-        <f>B4*1000000</f>
+        <f t="shared" si="0"/>
         <v>2691000000</v>
       </c>
       <c r="E4">
-        <f>C4*1000000</f>
+        <f t="shared" si="1"/>
         <v>1437000000</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>190771344</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>95378766</v>
       </c>
     </row>
@@ -11840,19 +11846,19 @@
         <v>141</v>
       </c>
       <c r="D5">
-        <f>B5*1000000</f>
+        <f t="shared" si="0"/>
         <v>270000000</v>
       </c>
       <c r="E5">
-        <f>C5*1000000</f>
+        <f t="shared" si="1"/>
         <v>141000000</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18913801</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9454726</v>
       </c>
     </row>
@@ -11867,19 +11873,19 @@
         <v>702</v>
       </c>
       <c r="D6">
-        <f>B6*1000000</f>
+        <f t="shared" si="0"/>
         <v>1363000000</v>
       </c>
       <c r="E6">
-        <f>C6*1000000</f>
+        <f t="shared" si="1"/>
         <v>702000000</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>95589729</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>47789976</v>
       </c>
     </row>
@@ -11894,19 +11900,19 @@
         <v>961</v>
       </c>
       <c r="D7">
-        <f>B7*1000000</f>
+        <f t="shared" si="0"/>
         <v>1847000000</v>
       </c>
       <c r="E7">
-        <f>C7*1000000</f>
+        <f t="shared" si="1"/>
         <v>961000000</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>131354521</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>65671530</v>
       </c>
     </row>
@@ -11921,19 +11927,19 @@
         <v>25</v>
       </c>
       <c r="D8">
-        <f>B8*1000000</f>
+        <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
       <c r="E8">
-        <f>C8*1000000</f>
+        <f t="shared" si="1"/>
         <v>25000000</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3381921</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1690041</v>
       </c>
     </row>
@@ -11948,19 +11954,19 @@
         <v>1482</v>
       </c>
       <c r="D9">
-        <f>B9*1000000</f>
+        <f t="shared" si="0"/>
         <v>2843000000</v>
       </c>
       <c r="E9">
-        <f>C9*1000000</f>
+        <f t="shared" si="1"/>
         <v>1482000000</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>200392336</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100189090</v>
       </c>
     </row>
@@ -11975,19 +11981,19 @@
         <v>394</v>
       </c>
       <c r="D10">
-        <f>B10*1000000</f>
+        <f t="shared" si="0"/>
         <v>750000000</v>
       </c>
       <c r="E10">
-        <f>C10*1000000</f>
+        <f t="shared" si="1"/>
         <v>394000000</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>53290000</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26641350</v>
       </c>
     </row>
@@ -12002,19 +12008,19 @@
         <v>1200</v>
       </c>
       <c r="D11">
-        <f>B11*1000000</f>
+        <f t="shared" si="0"/>
         <v>2299000000</v>
       </c>
       <c r="E11">
-        <f>C11*1000000</f>
+        <f t="shared" si="1"/>
         <v>1200000000</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>163353961</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>81670590</v>
       </c>
     </row>
@@ -12029,19 +12035,19 @@
         <v>1120</v>
       </c>
       <c r="D12">
-        <f>B12*1000000</f>
+        <f t="shared" si="0"/>
         <v>2149000000</v>
       </c>
       <c r="E12">
-        <f>C12*1000000</f>
+        <f t="shared" si="1"/>
         <v>1120000000</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>152646025</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>76316835</v>
       </c>
     </row>
@@ -12056,19 +12062,19 @@
         <v>609</v>
       </c>
       <c r="D13">
-        <f>B13*1000000</f>
+        <f t="shared" si="0"/>
         <v>1168000000</v>
       </c>
       <c r="E13">
-        <f>C13*1000000</f>
+        <f t="shared" si="1"/>
         <v>609000000</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>83046769</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41518828</v>
       </c>
     </row>
@@ -12083,19 +12089,19 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <f>B14*1000000</f>
+        <f t="shared" si="0"/>
         <v>4000000</v>
       </c>
       <c r="E14">
-        <f>C14*1000000</f>
+        <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>335241</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>167331</v>
       </c>
     </row>
@@ -12110,19 +12116,19 @@
         <v>1118</v>
       </c>
       <c r="D15">
-        <f>B15*1000000</f>
+        <f t="shared" si="0"/>
         <v>2141000000</v>
       </c>
       <c r="E15">
-        <f>C15*1000000</f>
+        <f t="shared" si="1"/>
         <v>1118000000</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>152423716</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>76205685</v>
       </c>
     </row>
@@ -12137,19 +12143,19 @@
         <v>115</v>
       </c>
       <c r="D16">
-        <f>B16*1000000</f>
+        <f t="shared" si="0"/>
         <v>217000000</v>
       </c>
       <c r="E16">
-        <f>C16*1000000</f>
+        <f t="shared" si="1"/>
         <v>115000000</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15327225</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7661655</v>
       </c>
     </row>
@@ -12164,19 +12170,19 @@
         <v>963</v>
       </c>
       <c r="D17">
-        <f>B17*1000000</f>
+        <f t="shared" si="0"/>
         <v>1850000000</v>
       </c>
       <c r="E17">
-        <f>C17*1000000</f>
+        <f t="shared" si="1"/>
         <v>963000000</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>131308681</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>65648611</v>
       </c>
     </row>
@@ -12191,19 +12197,19 @@
         <v>1450</v>
       </c>
       <c r="D18">
-        <f>B18*1000000</f>
+        <f t="shared" si="0"/>
         <v>2787000000</v>
       </c>
       <c r="E18">
-        <f>C18*1000000</f>
+        <f t="shared" si="1"/>
         <v>1450000000</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>197430601</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>98708275</v>
       </c>
     </row>
@@ -12218,19 +12224,19 @@
         <v>83</v>
       </c>
       <c r="D19">
-        <f>B19*1000000</f>
+        <f t="shared" si="0"/>
         <v>158000000</v>
       </c>
       <c r="E19">
-        <f>C19*1000000</f>
+        <f t="shared" si="1"/>
         <v>83000000</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11108889</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5552778</v>
       </c>
     </row>
@@ -12245,19 +12251,19 @@
         <v>625</v>
       </c>
       <c r="D20">
-        <f>B20*1000000</f>
+        <f t="shared" si="0"/>
         <v>1204000000</v>
       </c>
       <c r="E20">
-        <f>C20*1000000</f>
+        <f t="shared" si="1"/>
         <v>625000000</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>85340644</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>42665703</v>
       </c>
     </row>
@@ -12272,19 +12278,19 @@
         <v>764</v>
       </c>
       <c r="D21">
-        <f>B21*1000000</f>
+        <f t="shared" si="0"/>
         <v>1462000000</v>
       </c>
       <c r="E21">
-        <f>C21*1000000</f>
+        <f t="shared" si="1"/>
         <v>764000000</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>103876864</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>51933336</v>
       </c>
     </row>
@@ -12299,19 +12305,19 @@
         <v>44</v>
       </c>
       <c r="D22">
-        <f>B22*1000000</f>
+        <f t="shared" si="0"/>
         <v>87000000</v>
       </c>
       <c r="E22">
-        <f>C22*1000000</f>
+        <f t="shared" si="1"/>
         <v>44000000</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6091024</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3044278</v>
       </c>
     </row>
@@ -12326,19 +12332,19 @@
         <v>1397</v>
       </c>
       <c r="D23">
-        <f>B23*1000000</f>
+        <f t="shared" si="0"/>
         <v>2671000000</v>
       </c>
       <c r="E23">
-        <f>C23*1000000</f>
+        <f t="shared" si="1"/>
         <v>1397000000</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>190329616</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>95157910</v>
       </c>
     </row>
@@ -12353,19 +12359,19 @@
         <v>80</v>
       </c>
       <c r="D24">
-        <f>B24*1000000</f>
+        <f t="shared" si="0"/>
         <v>152000000</v>
       </c>
       <c r="E24">
-        <f>C24*1000000</f>
+        <f t="shared" si="1"/>
         <v>80000000</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10712529</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5354628</v>
       </c>
     </row>
@@ -12380,19 +12386,19 @@
         <v>875</v>
       </c>
       <c r="D25">
-        <f>B25*1000000</f>
+        <f t="shared" si="0"/>
         <v>1680000000</v>
       </c>
       <c r="E25">
-        <f>C25*1000000</f>
+        <f t="shared" si="1"/>
         <v>875000000</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>119596096</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>59792580</v>
       </c>
     </row>
@@ -12407,19 +12413,19 @@
         <v>106</v>
       </c>
       <c r="D26">
-        <f>B26*1000000</f>
+        <f t="shared" si="0"/>
         <v>201000000</v>
       </c>
       <c r="E26">
-        <f>C26*1000000</f>
+        <f t="shared" si="1"/>
         <v>106000000</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14115049</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7055646</v>
       </c>
     </row>
@@ -12434,19 +12440,19 @@
         <v>6</v>
       </c>
       <c r="D27">
-        <f>B27*1000000</f>
+        <f t="shared" si="0"/>
         <v>12000000</v>
       </c>
       <c r="E27">
-        <f>C27*1000000</f>
+        <f t="shared" si="1"/>
         <v>6000000</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>887364</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>443211</v>
       </c>
     </row>
@@ -12461,19 +12467,19 @@
         <v>879</v>
       </c>
       <c r="D28">
-        <f>B28*1000000</f>
+        <f t="shared" si="0"/>
         <v>1693000000</v>
       </c>
       <c r="E28">
-        <f>C28*1000000</f>
+        <f t="shared" si="1"/>
         <v>879000000</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>119530489</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>59759778</v>
       </c>
     </row>
@@ -12488,19 +12494,19 @@
         <v>606</v>
       </c>
       <c r="D29">
-        <f>B29*1000000</f>
+        <f t="shared" si="0"/>
         <v>1159000000</v>
       </c>
       <c r="E29">
-        <f>C29*1000000</f>
+        <f t="shared" si="1"/>
         <v>606000000</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>82119844</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41055391</v>
       </c>
     </row>
@@ -12515,19 +12521,19 @@
         <v>430</v>
       </c>
       <c r="D30">
-        <f>B30*1000000</f>
+        <f t="shared" si="0"/>
         <v>820000000</v>
       </c>
       <c r="E30">
-        <f>C30*1000000</f>
+        <f t="shared" si="1"/>
         <v>430000000</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>58384881</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29188620</v>
       </c>
     </row>
@@ -12542,19 +12548,19 @@
         <v>1634</v>
       </c>
       <c r="D31">
-        <f>B31*1000000</f>
+        <f t="shared" si="0"/>
         <v>3141000000</v>
       </c>
       <c r="E31">
-        <f>C31*1000000</f>
+        <f t="shared" si="1"/>
         <v>1634000000</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>223532401</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>111758725</v>
       </c>
     </row>
@@ -12568,7 +12574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35DD62B-F144-0E46-A023-F49F0FA15FA2}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -12615,11 +12621,11 @@
         <v>1304</v>
       </c>
       <c r="D2">
-        <f>B2*1000000</f>
+        <f t="shared" ref="D2:D31" si="0">B2*1000000</f>
         <v>2529000000</v>
       </c>
       <c r="E2">
-        <f>C2*1000000</f>
+        <f t="shared" ref="E2:E31" si="1">C2*1000000</f>
         <v>1304000000</v>
       </c>
       <c r="F2">
@@ -12642,19 +12648,19 @@
         <v>174</v>
       </c>
       <c r="D3">
-        <f>B3*1000000</f>
+        <f t="shared" si="0"/>
         <v>333000000</v>
       </c>
       <c r="E3">
-        <f>C3*1000000</f>
+        <f t="shared" si="1"/>
         <v>174000000</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F31" si="0">A3*A3</f>
+        <f t="shared" ref="F3:F31" si="2">A3*A3</f>
         <v>23629321</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G31" si="1">0.5*((A3*A3)-A3)</f>
+        <f t="shared" ref="G3:G31" si="3">0.5*((A3*A3)-A3)</f>
         <v>11812230</v>
       </c>
     </row>
@@ -12669,19 +12675,19 @@
         <v>1027</v>
       </c>
       <c r="D4">
-        <f>B4*1000000</f>
+        <f t="shared" si="0"/>
         <v>1955000000</v>
       </c>
       <c r="E4">
-        <f>C4*1000000</f>
+        <f t="shared" si="1"/>
         <v>1027000000</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>138768400</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>69378310</v>
       </c>
     </row>
@@ -12696,19 +12702,19 @@
         <v>1683</v>
       </c>
       <c r="D5">
-        <f>B5*1000000</f>
+        <f t="shared" si="0"/>
         <v>3271000000</v>
       </c>
       <c r="E5">
-        <f>C5*1000000</f>
+        <f t="shared" si="1"/>
         <v>1683000000</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>222159025</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>111072060</v>
       </c>
     </row>
@@ -12723,19 +12729,19 @@
         <v>189</v>
       </c>
       <c r="D6">
-        <f>B6*1000000</f>
+        <f t="shared" si="0"/>
         <v>364000000</v>
       </c>
       <c r="E6">
-        <f>C6*1000000</f>
+        <f t="shared" si="1"/>
         <v>189000000</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25462116</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12728535</v>
       </c>
     </row>
@@ -12750,19 +12756,19 @@
         <v>74</v>
       </c>
       <c r="D7">
-        <f>B7*1000000</f>
+        <f t="shared" si="0"/>
         <v>141000000</v>
       </c>
       <c r="E7">
-        <f>C7*1000000</f>
+        <f t="shared" si="1"/>
         <v>74000000</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9728161</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4862521</v>
       </c>
     </row>
@@ -12777,19 +12783,19 @@
         <v>584</v>
       </c>
       <c r="D8">
-        <f>B8*1000000</f>
+        <f t="shared" si="0"/>
         <v>1124000000</v>
       </c>
       <c r="E8">
-        <f>C8*1000000</f>
+        <f t="shared" si="1"/>
         <v>584000000</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>78907689</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39449403</v>
       </c>
     </row>
@@ -12804,19 +12810,19 @@
         <v>59</v>
       </c>
       <c r="D9">
-        <f>B9*1000000</f>
+        <f t="shared" si="0"/>
         <v>110000000</v>
       </c>
       <c r="E9">
-        <f>C9*1000000</f>
+        <f t="shared" si="1"/>
         <v>59000000</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7706176</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3851700</v>
       </c>
     </row>
@@ -12831,19 +12837,19 @@
         <v>244</v>
       </c>
       <c r="D10">
-        <f>B10*1000000</f>
+        <f t="shared" si="0"/>
         <v>459000000</v>
       </c>
       <c r="E10">
-        <f>C10*1000000</f>
+        <f t="shared" si="1"/>
         <v>244000000</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31640625</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15817500</v>
       </c>
     </row>
@@ -12858,19 +12864,19 @@
         <v>163</v>
       </c>
       <c r="D11">
-        <f>B11*1000000</f>
+        <f t="shared" si="0"/>
         <v>302000000</v>
       </c>
       <c r="E11">
-        <f>C11*1000000</f>
+        <f t="shared" si="1"/>
         <v>163000000</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21288996</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10642191</v>
       </c>
     </row>
@@ -12885,19 +12891,19 @@
         <v>606</v>
       </c>
       <c r="D12">
-        <f>B12*1000000</f>
+        <f t="shared" si="0"/>
         <v>1132000000</v>
       </c>
       <c r="E12">
-        <f>C12*1000000</f>
+        <f t="shared" si="1"/>
         <v>606000000</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>78854400</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39422760</v>
       </c>
     </row>
@@ -12912,19 +12918,19 @@
         <v>603</v>
       </c>
       <c r="D13">
-        <f>B13*1000000</f>
+        <f t="shared" si="0"/>
         <v>1165000000</v>
       </c>
       <c r="E13">
-        <f>C13*1000000</f>
+        <f t="shared" si="1"/>
         <v>603000000</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>79673476</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>39832275</v>
       </c>
     </row>
@@ -12939,19 +12945,19 @@
         <v>1150</v>
       </c>
       <c r="D14">
-        <f>B14*1000000</f>
+        <f t="shared" si="0"/>
         <v>2271000000</v>
       </c>
       <c r="E14">
-        <f>C14*1000000</f>
+        <f t="shared" si="1"/>
         <v>1150000000</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>155226681</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>77607111</v>
       </c>
     </row>
@@ -12966,19 +12972,19 @@
         <v>984</v>
       </c>
       <c r="D15">
-        <f>B15*1000000</f>
+        <f t="shared" si="0"/>
         <v>1896000000</v>
       </c>
       <c r="E15">
-        <f>C15*1000000</f>
+        <f t="shared" si="1"/>
         <v>984000000</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>132894784</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>66441628</v>
       </c>
     </row>
@@ -12993,19 +12999,19 @@
         <v>357</v>
       </c>
       <c r="D16">
-        <f>B16*1000000</f>
+        <f t="shared" si="0"/>
         <v>697000000</v>
       </c>
       <c r="E16">
-        <f>C16*1000000</f>
+        <f t="shared" si="1"/>
         <v>357000000</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47554816</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23773960</v>
       </c>
     </row>
@@ -13020,19 +13026,19 @@
         <v>753</v>
       </c>
       <c r="D17">
-        <f>B17*1000000</f>
+        <f t="shared" si="0"/>
         <v>1447000000</v>
       </c>
       <c r="E17">
-        <f>C17*1000000</f>
+        <f t="shared" si="1"/>
         <v>753000000</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>101566084</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50778003</v>
       </c>
     </row>
@@ -13047,19 +13053,19 @@
         <v>92</v>
       </c>
       <c r="D18">
-        <f>B18*1000000</f>
+        <f t="shared" si="0"/>
         <v>170000000</v>
       </c>
       <c r="E18">
-        <f>C18*1000000</f>
+        <f t="shared" si="1"/>
         <v>92000000</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11614464</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5805528</v>
       </c>
     </row>
@@ -13074,19 +13080,19 @@
         <v>1042</v>
       </c>
       <c r="D19">
-        <f>B19*1000000</f>
+        <f t="shared" si="0"/>
         <v>2027000000</v>
       </c>
       <c r="E19">
-        <f>C19*1000000</f>
+        <f t="shared" si="1"/>
         <v>1042000000</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>133610481</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>66799461</v>
       </c>
     </row>
@@ -13101,19 +13107,19 @@
         <v>1316</v>
       </c>
       <c r="D20">
-        <f>B20*1000000</f>
+        <f t="shared" si="0"/>
         <v>2549000000</v>
       </c>
       <c r="E20">
-        <f>C20*1000000</f>
+        <f t="shared" si="1"/>
         <v>1316000000</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>175085824</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>87536296</v>
       </c>
     </row>
@@ -13128,19 +13134,19 @@
         <v>1391</v>
       </c>
       <c r="D21">
-        <f>B21*1000000</f>
+        <f t="shared" si="0"/>
         <v>2739000000</v>
       </c>
       <c r="E21">
-        <f>C21*1000000</f>
+        <f t="shared" si="1"/>
         <v>1391000000</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>189833284</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>94909753</v>
       </c>
     </row>
@@ -13155,19 +13161,19 @@
         <v>328</v>
       </c>
       <c r="D22">
-        <f>B22*1000000</f>
+        <f t="shared" si="0"/>
         <v>631000000</v>
       </c>
       <c r="E22">
-        <f>C22*1000000</f>
+        <f t="shared" si="1"/>
         <v>328000000</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44555625</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22274475</v>
       </c>
     </row>
@@ -13182,19 +13188,19 @@
         <v>443</v>
       </c>
       <c r="D23">
-        <f>B23*1000000</f>
+        <f t="shared" si="0"/>
         <v>846000000</v>
       </c>
       <c r="E23">
-        <f>C23*1000000</f>
+        <f t="shared" si="1"/>
         <v>443000000</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>57486724</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28739571</v>
       </c>
     </row>
@@ -13209,19 +13215,19 @@
         <v>510</v>
       </c>
       <c r="D24">
-        <f>B24*1000000</f>
+        <f t="shared" si="0"/>
         <v>971000000</v>
       </c>
       <c r="E24">
-        <f>C24*1000000</f>
+        <f t="shared" si="1"/>
         <v>510000000</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>67601284</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33796531</v>
       </c>
     </row>
@@ -13236,19 +13242,19 @@
         <v>686</v>
       </c>
       <c r="D25">
-        <f>B25*1000000</f>
+        <f t="shared" si="0"/>
         <v>1298000000</v>
       </c>
       <c r="E25">
-        <f>C25*1000000</f>
+        <f t="shared" si="1"/>
         <v>686000000</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>90706576</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45348526</v>
       </c>
     </row>
@@ -13263,19 +13269,19 @@
         <v>1047</v>
       </c>
       <c r="D26">
-        <f>B26*1000000</f>
+        <f t="shared" si="0"/>
         <v>2058000000</v>
       </c>
       <c r="E26">
-        <f>C26*1000000</f>
+        <f t="shared" si="1"/>
         <v>1047000000</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>139098436</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>69543321</v>
       </c>
     </row>
@@ -13290,19 +13296,19 @@
         <v>599</v>
       </c>
       <c r="D27">
-        <f>B27*1000000</f>
+        <f t="shared" si="0"/>
         <v>1171000000</v>
       </c>
       <c r="E27">
-        <f>C27*1000000</f>
+        <f t="shared" si="1"/>
         <v>599000000</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>81432576</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40711776</v>
       </c>
     </row>
@@ -13317,19 +13323,19 @@
         <v>981</v>
       </c>
       <c r="D28">
-        <f>B28*1000000</f>
+        <f t="shared" si="0"/>
         <v>1808000000</v>
       </c>
       <c r="E28">
-        <f>C28*1000000</f>
+        <f t="shared" si="1"/>
         <v>981000000</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>128210329</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>64099503</v>
       </c>
     </row>
@@ -13344,19 +13350,19 @@
         <v>1148</v>
       </c>
       <c r="D29">
-        <f>B29*1000000</f>
+        <f t="shared" si="0"/>
         <v>2231000000</v>
       </c>
       <c r="E29">
-        <f>C29*1000000</f>
+        <f t="shared" si="1"/>
         <v>1148000000</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>150479289</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>75233511</v>
       </c>
     </row>
@@ -13371,19 +13377,19 @@
         <v>1127</v>
       </c>
       <c r="D30">
-        <f>B30*1000000</f>
+        <f t="shared" si="0"/>
         <v>2102000000</v>
       </c>
       <c r="E30">
-        <f>C30*1000000</f>
+        <f t="shared" si="1"/>
         <v>1127000000</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>143808064</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>71898036</v>
       </c>
     </row>
@@ -13398,19 +13404,19 @@
         <v>10</v>
       </c>
       <c r="D31">
-        <f>B31*1000000</f>
+        <f t="shared" si="0"/>
         <v>21000000</v>
       </c>
       <c r="E31">
-        <f>C31*1000000</f>
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1425636</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>712221</v>
       </c>
     </row>
@@ -13424,7 +13430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617A9C93-5FD2-0E47-B7DE-DF1699CAD511}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="H28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G22" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -13476,11 +13482,11 @@
         <v>884</v>
       </c>
       <c r="D2">
-        <f>B2*1000000</f>
+        <f t="shared" ref="D2:D31" si="0">B2*1000000</f>
         <v>1716000000</v>
       </c>
       <c r="E2">
-        <f>C2*1000000</f>
+        <f t="shared" ref="E2:E31" si="1">C2*1000000</f>
         <v>884000000</v>
       </c>
       <c r="F2">
@@ -13503,19 +13509,19 @@
         <v>74</v>
       </c>
       <c r="D3">
-        <f>B3*1000000</f>
+        <f t="shared" si="0"/>
         <v>143000000</v>
       </c>
       <c r="E3">
-        <f>C3*1000000</f>
+        <f t="shared" si="1"/>
         <v>74000000</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F31" si="0">A3*A3</f>
+        <f t="shared" ref="F3:F31" si="2">A3*A3</f>
         <v>10118761</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G31" si="1">0.5*((A3*A3)-A3)</f>
+        <f t="shared" ref="G3:G31" si="3">0.5*((A3*A3)-A3)</f>
         <v>5057790</v>
       </c>
     </row>
@@ -13530,19 +13536,19 @@
         <v>867</v>
       </c>
       <c r="D4">
-        <f>B4*1000000</f>
+        <f t="shared" si="0"/>
         <v>1631000000</v>
       </c>
       <c r="E4">
-        <f>C4*1000000</f>
+        <f t="shared" si="1"/>
         <v>867000000</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>115390564</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>57689911</v>
       </c>
     </row>
@@ -13557,19 +13563,19 @@
         <v>1280</v>
       </c>
       <c r="D5">
-        <f>B5*1000000</f>
+        <f t="shared" si="0"/>
         <v>2449000000</v>
       </c>
       <c r="E5">
-        <f>C5*1000000</f>
+        <f t="shared" si="1"/>
         <v>1280000000</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>171112561</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>85549740</v>
       </c>
     </row>
@@ -13584,19 +13590,19 @@
         <v>172</v>
       </c>
       <c r="D6">
-        <f>B6*1000000</f>
+        <f t="shared" si="0"/>
         <v>330000000</v>
       </c>
       <c r="E6">
-        <f>C6*1000000</f>
+        <f t="shared" si="1"/>
         <v>172000000</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23011209</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11503206</v>
       </c>
     </row>
@@ -13611,19 +13617,19 @@
         <v>1170</v>
       </c>
       <c r="D7">
-        <f>B7*1000000</f>
+        <f t="shared" si="0"/>
         <v>2254000000</v>
       </c>
       <c r="E7">
-        <f>C7*1000000</f>
+        <f t="shared" si="1"/>
         <v>1170000000</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>159239161</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>79613271</v>
       </c>
     </row>
@@ -13638,19 +13644,19 @@
         <v>1145</v>
       </c>
       <c r="D8">
-        <f>B8*1000000</f>
+        <f t="shared" si="0"/>
         <v>2194000000</v>
       </c>
       <c r="E8">
-        <f>C8*1000000</f>
+        <f t="shared" si="1"/>
         <v>1145000000</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>155351296</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>77669416</v>
       </c>
     </row>
@@ -13665,19 +13671,19 @@
         <v>359</v>
       </c>
       <c r="D9">
-        <f>B9*1000000</f>
+        <f t="shared" si="0"/>
         <v>689000000</v>
       </c>
       <c r="E9">
-        <f>C9*1000000</f>
+        <f t="shared" si="1"/>
         <v>359000000</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>48608784</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24300906</v>
       </c>
     </row>
@@ -13692,19 +13698,19 @@
         <v>61</v>
       </c>
       <c r="D10">
-        <f>B10*1000000</f>
+        <f t="shared" si="0"/>
         <v>116000000</v>
       </c>
       <c r="E10">
-        <f>C10*1000000</f>
+        <f t="shared" si="1"/>
         <v>61000000</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8054244</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4025703</v>
       </c>
     </row>
@@ -13719,19 +13725,19 @@
         <v>231</v>
       </c>
       <c r="D11">
-        <f>B11*1000000</f>
+        <f t="shared" si="0"/>
         <v>440000000</v>
       </c>
       <c r="E11">
-        <f>C11*1000000</f>
+        <f t="shared" si="1"/>
         <v>231000000</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31114084</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15554253</v>
       </c>
     </row>
@@ -13746,19 +13752,19 @@
         <v>434</v>
       </c>
       <c r="D12">
-        <f>B12*1000000</f>
+        <f t="shared" si="0"/>
         <v>833000000</v>
       </c>
       <c r="E12">
-        <f>C12*1000000</f>
+        <f t="shared" si="1"/>
         <v>434000000</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>58798224</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29395278</v>
       </c>
     </row>
@@ -13773,19 +13779,19 @@
         <v>1030</v>
       </c>
       <c r="D13">
-        <f>B13*1000000</f>
+        <f t="shared" si="0"/>
         <v>1976000000</v>
       </c>
       <c r="E13">
-        <f>C13*1000000</f>
+        <f t="shared" si="1"/>
         <v>1030000000</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>139806976</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>69897576</v>
       </c>
     </row>
@@ -13800,19 +13806,19 @@
         <v>699</v>
       </c>
       <c r="D14">
-        <f>B14*1000000</f>
+        <f t="shared" si="0"/>
         <v>1337000000</v>
       </c>
       <c r="E14">
-        <f>C14*1000000</f>
+        <f t="shared" si="1"/>
         <v>699000000</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>94420089</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>47205186</v>
       </c>
     </row>
@@ -13827,19 +13833,19 @@
         <v>442</v>
       </c>
       <c r="D15">
-        <f>B15*1000000</f>
+        <f t="shared" si="0"/>
         <v>850000000</v>
       </c>
       <c r="E15">
-        <f>C15*1000000</f>
+        <f t="shared" si="1"/>
         <v>442000000</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>59938564</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29965411</v>
       </c>
     </row>
@@ -13854,19 +13860,19 @@
         <v>1488</v>
       </c>
       <c r="D16">
-        <f>B16*1000000</f>
+        <f t="shared" si="0"/>
         <v>2855000000</v>
       </c>
       <c r="E16">
-        <f>C16*1000000</f>
+        <f t="shared" si="1"/>
         <v>1488000000</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>201782025</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100883910</v>
       </c>
     </row>
@@ -13881,19 +13887,19 @@
         <v>529</v>
       </c>
       <c r="D17">
-        <f>B17*1000000</f>
+        <f t="shared" si="0"/>
         <v>1017000000</v>
       </c>
       <c r="E17">
-        <f>C17*1000000</f>
+        <f t="shared" si="1"/>
         <v>529000000</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>71961289</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35976403</v>
       </c>
     </row>
@@ -13908,19 +13914,19 @@
         <v>1168</v>
       </c>
       <c r="D18">
-        <f>B18*1000000</f>
+        <f t="shared" si="0"/>
         <v>2241000000</v>
       </c>
       <c r="E18">
-        <f>C18*1000000</f>
+        <f t="shared" si="1"/>
         <v>1168000000</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>158432569</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>79209991</v>
       </c>
     </row>
@@ -13935,19 +13941,19 @@
         <v>122</v>
       </c>
       <c r="D19">
-        <f>B19*1000000</f>
+        <f t="shared" si="0"/>
         <v>234000000</v>
       </c>
       <c r="E19">
-        <f>C19*1000000</f>
+        <f t="shared" si="1"/>
         <v>122000000</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16321600</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8158780</v>
       </c>
     </row>
@@ -13962,19 +13968,19 @@
         <v>193</v>
       </c>
       <c r="D20">
-        <f>B20*1000000</f>
+        <f t="shared" si="0"/>
         <v>371000000</v>
       </c>
       <c r="E20">
-        <f>C20*1000000</f>
+        <f t="shared" si="1"/>
         <v>193000000</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26122321</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13058605</v>
       </c>
     </row>
@@ -13989,19 +13995,19 @@
         <v>215</v>
       </c>
       <c r="D21">
-        <f>B21*1000000</f>
+        <f t="shared" si="0"/>
         <v>412000000</v>
       </c>
       <c r="E21">
-        <f>C21*1000000</f>
+        <f t="shared" si="1"/>
         <v>215000000</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28815424</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14405028</v>
       </c>
     </row>
@@ -14016,19 +14022,19 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <f>B22*1000000</f>
+        <f t="shared" si="0"/>
         <v>47000000</v>
       </c>
       <c r="E22">
-        <f>C22*1000000</f>
+        <f t="shared" si="1"/>
         <v>26000000</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3294225</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1646205</v>
       </c>
     </row>
@@ -14043,19 +14049,19 @@
         <v>611</v>
       </c>
       <c r="D23">
-        <f>B23*1000000</f>
+        <f t="shared" si="0"/>
         <v>1174000000</v>
       </c>
       <c r="E23">
-        <f>C23*1000000</f>
+        <f t="shared" si="1"/>
         <v>611000000</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>82682649</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41336778</v>
       </c>
     </row>
@@ -14070,19 +14076,19 @@
         <v>207</v>
       </c>
       <c r="D24">
-        <f>B24*1000000</f>
+        <f t="shared" si="0"/>
         <v>396000000</v>
       </c>
       <c r="E24">
-        <f>C24*1000000</f>
+        <f t="shared" si="1"/>
         <v>207000000</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28047616</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14021160</v>
       </c>
     </row>
@@ -14097,19 +14103,19 @@
         <v>524</v>
       </c>
       <c r="D25">
-        <f>B25*1000000</f>
+        <f t="shared" si="0"/>
         <v>996000000</v>
       </c>
       <c r="E25">
-        <f>C25*1000000</f>
+        <f t="shared" si="1"/>
         <v>524000000</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>70107129</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35049378</v>
       </c>
     </row>
@@ -14124,19 +14130,19 @@
         <v>10</v>
       </c>
       <c r="D26">
-        <f>B26*1000000</f>
+        <f t="shared" si="0"/>
         <v>20000000</v>
       </c>
       <c r="E26">
-        <f>C26*1000000</f>
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1440000</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>719400</v>
       </c>
     </row>
@@ -14151,19 +14157,19 @@
         <v>461</v>
       </c>
       <c r="D27">
-        <f>B27*1000000</f>
+        <f t="shared" si="0"/>
         <v>882000000</v>
       </c>
       <c r="E27">
-        <f>C27*1000000</f>
+        <f t="shared" si="1"/>
         <v>461000000</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>62346816</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31169460</v>
       </c>
     </row>
@@ -14178,19 +14184,19 @@
         <v>24</v>
       </c>
       <c r="D28">
-        <f>B28*1000000</f>
+        <f t="shared" si="0"/>
         <v>42000000</v>
       </c>
       <c r="E28">
-        <f>C28*1000000</f>
+        <f t="shared" si="1"/>
         <v>24000000</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3062500</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1530375</v>
       </c>
     </row>
@@ -14205,19 +14211,19 @@
         <v>1451</v>
       </c>
       <c r="D29">
-        <f>B29*1000000</f>
+        <f t="shared" si="0"/>
         <v>2779000000</v>
       </c>
       <c r="E29">
-        <f>C29*1000000</f>
+        <f t="shared" si="1"/>
         <v>1451000000</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>197149681</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>98567820</v>
       </c>
     </row>
@@ -14232,19 +14238,19 @@
         <v>784</v>
       </c>
       <c r="D30">
-        <f>B30*1000000</f>
+        <f t="shared" si="0"/>
         <v>1499000000</v>
       </c>
       <c r="E30">
-        <f>C30*1000000</f>
+        <f t="shared" si="1"/>
         <v>784000000</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>105925264</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>52957486</v>
       </c>
     </row>
@@ -14259,19 +14265,19 @@
         <v>342</v>
       </c>
       <c r="D31">
-        <f>B31*1000000</f>
+        <f t="shared" si="0"/>
         <v>658000000</v>
       </c>
       <c r="E31">
-        <f>C31*1000000</f>
+        <f t="shared" si="1"/>
         <v>342000000</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>46308025</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23150610</v>
       </c>
     </row>

--- a/testresults(timer).xlsx
+++ b/testresults(timer).xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaibhav Vachhani\Downloads\SEM-5\CAB301\Assignment 2\Assignment2\CAB301-Assignment2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushallimbasiya/Documents/GitHub/CAB301-Assignment2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AF4F04-F332-4466-902B-8A2A48FF4171}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9808ADF4-21B2-FF41-A3A6-3524B1D8BEE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{9E3ACA9F-CD8F-40A6-AD96-15A216C453F9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15840" activeTab="3" xr2:uid="{9E3ACA9F-CD8F-40A6-AD96-15A216C453F9}"/>
   </bookViews>
   <sheets>
-    <sheet name="without" sheetId="1" r:id="rId1"/>
-    <sheet name="without2" sheetId="2" r:id="rId2"/>
-    <sheet name="with" sheetId="3" r:id="rId3"/>
-    <sheet name="with2" sheetId="4" r:id="rId4"/>
+    <sheet name="timerWithoutDuplicate1" sheetId="1" r:id="rId1"/>
+    <sheet name="timerWithoutDuplicate2" sheetId="2" r:id="rId2"/>
+    <sheet name="timerTestRun1" sheetId="3" r:id="rId3"/>
+    <sheet name="timerTestRun2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -195,7 +195,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>without!$B$1</c:f>
+              <c:f>timerWithoutDuplicate1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -303,7 +303,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>without!$A$2:$A$31</c:f>
+              <c:f>timerWithoutDuplicate1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -402,7 +402,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>without!$B$2:$B$31</c:f>
+              <c:f>timerWithoutDuplicate1!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -511,7 +511,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>without!$C$1</c:f>
+              <c:f>timerWithoutDuplicate1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -619,7 +619,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>without!$A$2:$A$31</c:f>
+              <c:f>timerWithoutDuplicate1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -718,7 +718,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>without!$C$2:$C$31</c:f>
+              <c:f>timerWithoutDuplicate1!$C$2:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1256,7 +1256,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>without!$D$1</c:f>
+              <c:f>timerWithoutDuplicate1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1364,7 +1364,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>without!$A$2:$A$31</c:f>
+              <c:f>timerWithoutDuplicate1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1463,7 +1463,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>without!$D$2:$D$31</c:f>
+              <c:f>timerWithoutDuplicate1!$D$2:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1572,7 +1572,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>without!$E$1</c:f>
+              <c:f>timerWithoutDuplicate1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1680,7 +1680,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>without!$A$2:$A$31</c:f>
+              <c:f>timerWithoutDuplicate1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1779,7 +1779,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>without!$E$2:$E$31</c:f>
+              <c:f>timerWithoutDuplicate1!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1888,7 +1888,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>without!$F$1</c:f>
+              <c:f>timerWithoutDuplicate1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1972,7 +1972,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>without!$A$2:$A$31</c:f>
+              <c:f>timerWithoutDuplicate1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2071,7 +2071,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>without!$F$2:$F$31</c:f>
+              <c:f>timerWithoutDuplicate1!$F$2:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2180,7 +2180,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>without!$G$1</c:f>
+              <c:f>timerWithoutDuplicate1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2264,7 +2264,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>without!$A$2:$A$31</c:f>
+              <c:f>timerWithoutDuplicate1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2363,7 +2363,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>without!$G$2:$G$31</c:f>
+              <c:f>timerWithoutDuplicate1!$G$2:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2906,7 +2906,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>without2!$D$1</c:f>
+              <c:f>timerWithoutDuplicate2!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3020,7 +3020,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>without2!$A$2:$A$31</c:f>
+              <c:f>timerWithoutDuplicate2!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3119,7 +3119,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>without2!$D$2:$D$31</c:f>
+              <c:f>timerWithoutDuplicate2!$D$2:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3228,7 +3228,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>without2!$E$1</c:f>
+              <c:f>timerWithoutDuplicate2!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3342,7 +3342,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>without2!$A$2:$A$31</c:f>
+              <c:f>timerWithoutDuplicate2!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3441,7 +3441,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>without2!$E$2:$E$31</c:f>
+              <c:f>timerWithoutDuplicate2!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3550,7 +3550,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>without2!$F$1</c:f>
+              <c:f>timerWithoutDuplicate2!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3634,7 +3634,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>without2!$A$2:$A$31</c:f>
+              <c:f>timerWithoutDuplicate2!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3733,7 +3733,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>without2!$F$2:$F$31</c:f>
+              <c:f>timerWithoutDuplicate2!$F$2:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3842,7 +3842,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>without2!$G$1</c:f>
+              <c:f>timerWithoutDuplicate2!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3926,7 +3926,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>without2!$A$2:$A$31</c:f>
+              <c:f>timerWithoutDuplicate2!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4025,7 +4025,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>without2!$G$2:$G$31</c:f>
+              <c:f>timerWithoutDuplicate2!$G$2:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4601,7 +4601,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>with!$D$1</c:f>
+              <c:f>timerTestRun1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4679,7 +4679,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>with!$A$2:$A$31</c:f>
+              <c:f>timerTestRun1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4778,7 +4778,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>with!$D$2:$D$31</c:f>
+              <c:f>timerTestRun1!$D$2:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4887,7 +4887,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>with!$E$1</c:f>
+              <c:f>timerTestRun1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4965,7 +4965,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>with!$A$2:$A$31</c:f>
+              <c:f>timerTestRun1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -5064,7 +5064,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>with!$E$2:$E$31</c:f>
+              <c:f>timerTestRun1!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -5173,7 +5173,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>with!$F$1</c:f>
+              <c:f>timerTestRun1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5257,7 +5257,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>with!$A$2:$A$31</c:f>
+              <c:f>timerTestRun1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -5356,7 +5356,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>with!$F$2:$F$31</c:f>
+              <c:f>timerTestRun1!$F$2:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -5465,7 +5465,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>with!$G$1</c:f>
+              <c:f>timerTestRun1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5513,7 +5513,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>with!$A$2:$A$31</c:f>
+              <c:f>timerTestRun1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -5612,7 +5612,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>with!$G$2:$G$31</c:f>
+              <c:f>timerTestRun1!$G$2:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -6135,7 +6135,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>with2!$D$1</c:f>
+              <c:f>timerTestRun2!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6213,7 +6213,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>with2!$A$2:$A$31</c:f>
+              <c:f>timerTestRun2!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -6312,7 +6312,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>with2!$D$2:$D$31</c:f>
+              <c:f>timerTestRun2!$D$2:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -6421,7 +6421,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>with2!$E$1</c:f>
+              <c:f>timerTestRun2!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6499,7 +6499,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>with2!$A$2:$A$31</c:f>
+              <c:f>timerTestRun2!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -6598,7 +6598,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>with2!$E$2:$E$31</c:f>
+              <c:f>timerTestRun2!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -6707,7 +6707,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>with2!$F$1</c:f>
+              <c:f>timerTestRun2!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6791,7 +6791,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>with2!$A$2:$A$31</c:f>
+              <c:f>timerTestRun2!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -6890,7 +6890,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>with2!$F$2:$F$31</c:f>
+              <c:f>timerTestRun2!$F$2:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -6999,7 +6999,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>with2!$G$1</c:f>
+              <c:f>timerTestRun2!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7047,7 +7047,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>with2!$A$2:$A$31</c:f>
+              <c:f>timerTestRun2!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -7146,7 +7146,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>with2!$G$2:$G$31</c:f>
+              <c:f>timerTestRun2!$G$2:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -10396,14 +10396,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>589642</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>328838</xdr:colOff>
+      <xdr:colOff>328837</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>192767</xdr:rowOff>
     </xdr:to>
@@ -10857,21 +10857,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A70A97-ED3E-460C-887F-896418341F50}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="B34" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>9525</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>45358050</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3160</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>4991220</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5847</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>17090781</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>14092</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>99285186</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>11214</v>
       </c>
@@ -11030,7 +11030,7 @@
         <v>62871291</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>11665</v>
       </c>
@@ -11057,7 +11057,7 @@
         <v>68030280</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3053</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>4658878</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1975</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>1949325</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1037</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>537166</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6808</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>23171028</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10956</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>60011490</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2580</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>3326910</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13214</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>87298291</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7134</v>
       </c>
@@ -11273,7 +11273,7 @@
         <v>25443411</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1000</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>499500</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1535</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>1177345</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1664</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>1383616</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2209</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>2438736</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1607</v>
       </c>
@@ -11408,7 +11408,7 @@
         <v>1290421</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>604</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>182106</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>7799</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>30408301</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5055</v>
       </c>
@@ -11489,7 +11489,7 @@
         <v>12773985</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3334</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>5556111</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4403</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>9691003</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>14327</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>102624301</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>14866</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>110491545</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>13536</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>91604880</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>12459</v>
       </c>
@@ -11651,7 +11651,7 @@
         <v>77607111</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5433</v>
       </c>
@@ -11678,7 +11678,7 @@
         <v>14756028</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>11155</v>
       </c>
@@ -11715,23 +11715,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF91067-CD29-4D07-8FCC-F2C96EEE03E9}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="D34" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>7021</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>24643710</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>11154</v>
       </c>
@@ -11808,7 +11808,7 @@
         <v>62200281</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>13812</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>95378766</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4349</v>
       </c>
@@ -11862,7 +11862,7 @@
         <v>9454726</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>9777</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>47789976</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>11461</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>65671530</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1839</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>1690041</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>14156</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>100189090</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7300</v>
       </c>
@@ -11997,7 +11997,7 @@
         <v>26641350</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>12781</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>81670590</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12355</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>76316835</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9113</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>41518828</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>579</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>167331</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12346</v>
       </c>
@@ -12132,7 +12132,7 @@
         <v>76205685</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3915</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>7661655</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>11459</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>65648611</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14051</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>98708275</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3333</v>
       </c>
@@ -12240,7 +12240,7 @@
         <v>5552778</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>9238</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>42665703</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10192</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>51933336</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2468</v>
       </c>
@@ -12321,7 +12321,7 @@
         <v>3044278</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>13796</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>95157910</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3273</v>
       </c>
@@ -12375,7 +12375,7 @@
         <v>5354628</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>10936</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>59792580</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3757</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>7055646</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>942</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>443211</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>10933</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>59759778</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>9062</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>41055391</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>7641</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>29188620</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>14951</v>
       </c>
@@ -12574,20 +12574,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35DD62B-F144-0E46-A023-F49F0FA15FA2}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12610,7 +12610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>13247</v>
       </c>
@@ -12637,7 +12637,7 @@
         <v>87734881</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4861</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>11812230</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>11780</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>69378310</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>14905</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>111072060</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5046</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>12728535</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3119</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>4862521</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8883</v>
       </c>
@@ -12799,7 +12799,7 @@
         <v>39449403</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2776</v>
       </c>
@@ -12826,7 +12826,7 @@
         <v>3851700</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5625</v>
       </c>
@@ -12853,7 +12853,7 @@
         <v>15817500</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4614</v>
       </c>
@@ -12880,7 +12880,7 @@
         <v>10642191</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8880</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>39422760</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8926</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>39832275</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12459</v>
       </c>
@@ -12961,7 +12961,7 @@
         <v>77607111</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11528</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>66441628</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6896</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>23773960</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10078</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>50778003</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3408</v>
       </c>
@@ -13069,7 +13069,7 @@
         <v>5805528</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>11559</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>66799461</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>13232</v>
       </c>
@@ -13123,7 +13123,7 @@
         <v>87536296</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>13778</v>
       </c>
@@ -13150,7 +13150,7 @@
         <v>94909753</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6675</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>22274475</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>7582</v>
       </c>
@@ -13204,7 +13204,7 @@
         <v>28739571</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>8222</v>
       </c>
@@ -13231,7 +13231,7 @@
         <v>33796531</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>9524</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>45348526</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>11794</v>
       </c>
@@ -13285,7 +13285,7 @@
         <v>69543321</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>9024</v>
       </c>
@@ -13312,7 +13312,7 @@
         <v>40711776</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>11323</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>64099503</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>12267</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>75233511</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>11992</v>
       </c>
@@ -13393,7 +13393,7 @@
         <v>71898036</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1194</v>
       </c>
@@ -13430,25 +13430,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617A9C93-5FD2-0E47-B7DE-DF1699CAD511}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H21" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10963</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>60088203</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3181</v>
       </c>
@@ -13525,7 +13525,7 @@
         <v>5057790</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10742</v>
       </c>
@@ -13552,7 +13552,7 @@
         <v>57689911</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>13081</v>
       </c>
@@ -13579,7 +13579,7 @@
         <v>85549740</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4797</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>11503206</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>12619</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>79613271</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>12464</v>
       </c>
@@ -13660,7 +13660,7 @@
         <v>77669416</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6972</v>
       </c>
@@ -13687,7 +13687,7 @@
         <v>24300906</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2838</v>
       </c>
@@ -13714,7 +13714,7 @@
         <v>4025703</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5578</v>
       </c>
@@ -13741,7 +13741,7 @@
         <v>15554253</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>7668</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>29395278</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11824</v>
       </c>
@@ -13795,7 +13795,7 @@
         <v>69897576</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9717</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>47205186</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7742</v>
       </c>
@@ -13849,7 +13849,7 @@
         <v>29965411</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14205</v>
       </c>
@@ -13876,7 +13876,7 @@
         <v>100883910</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8483</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>35976403</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>12587</v>
       </c>
@@ -13930,7 +13930,7 @@
         <v>79209991</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4040</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>8158780</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5111</v>
       </c>
@@ -13984,7 +13984,7 @@
         <v>13058605</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5368</v>
       </c>
@@ -14011,7 +14011,7 @@
         <v>14405028</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1815</v>
       </c>
@@ -14038,7 +14038,7 @@
         <v>1646205</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>9093</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>41336778</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5296</v>
       </c>
@@ -14092,7 +14092,7 @@
         <v>14021160</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>8373</v>
       </c>
@@ -14119,7 +14119,7 @@
         <v>35049378</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1200</v>
       </c>
@@ -14146,7 +14146,7 @@
         <v>719400</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7896</v>
       </c>
@@ -14173,7 +14173,7 @@
         <v>31169460</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1750</v>
       </c>
@@ -14200,7 +14200,7 @@
         <v>1530375</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>14041</v>
       </c>
@@ -14227,7 +14227,7 @@
         <v>98567820</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>10292</v>
       </c>
@@ -14254,7 +14254,7 @@
         <v>52957486</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6805</v>
       </c>
